--- a/BackTest/2020-01-20 BackTest RDN.xlsx
+++ b/BackTest/2020-01-20 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:M210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C2" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E2" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F2" t="n">
-        <v>19925.0408</v>
+        <v>11386.4426</v>
       </c>
       <c r="G2" t="n">
-        <v>151.725</v>
+        <v>151.535</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -477,19 +477,19 @@
         <v>160</v>
       </c>
       <c r="E3" t="n">
-        <v>155.1</v>
+        <v>159</v>
       </c>
       <c r="F3" t="n">
-        <v>8860.894200000001</v>
+        <v>19925.0408</v>
       </c>
       <c r="G3" t="n">
-        <v>151.9133333333333</v>
+        <v>151.725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C4" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D4" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E4" t="n">
-        <v>156</v>
+        <v>155.1</v>
       </c>
       <c r="F4" t="n">
-        <v>49.1567</v>
+        <v>8860.894200000001</v>
       </c>
       <c r="G4" t="n">
-        <v>152.0316666666666</v>
+        <v>151.9133333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -550,10 +550,10 @@
         <v>156</v>
       </c>
       <c r="F5" t="n">
-        <v>21.6377</v>
+        <v>49.1567</v>
       </c>
       <c r="G5" t="n">
-        <v>152.0666666666666</v>
+        <v>152.0316666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C6" t="n">
-        <v>155.1</v>
+        <v>156</v>
       </c>
       <c r="D6" t="n">
-        <v>159.9</v>
+        <v>156</v>
       </c>
       <c r="E6" t="n">
-        <v>155.1</v>
+        <v>156</v>
       </c>
       <c r="F6" t="n">
-        <v>16388.7266</v>
+        <v>21.6377</v>
       </c>
       <c r="G6" t="n">
-        <v>152.0866666666666</v>
+        <v>152.0666666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>155.1</v>
+        <v>159</v>
       </c>
       <c r="C7" t="n">
         <v>155.1</v>
       </c>
       <c r="D7" t="n">
-        <v>159</v>
+        <v>159.9</v>
       </c>
       <c r="E7" t="n">
         <v>155.1</v>
       </c>
       <c r="F7" t="n">
-        <v>3831.3632</v>
+        <v>16388.7266</v>
       </c>
       <c r="G7" t="n">
-        <v>152.1066666666667</v>
+        <v>152.0866666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>156</v>
+        <v>155.1</v>
       </c>
       <c r="C8" t="n">
-        <v>156</v>
+        <v>155.1</v>
       </c>
       <c r="D8" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E8" t="n">
-        <v>156</v>
+        <v>155.1</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>3831.3632</v>
       </c>
       <c r="G8" t="n">
-        <v>152.1416666666667</v>
+        <v>152.1066666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>156</v>
       </c>
       <c r="F9" t="n">
-        <v>43.2002</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>152.1766666666667</v>
+        <v>152.1416666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>156</v>
       </c>
       <c r="F10" t="n">
-        <v>249.5329</v>
+        <v>43.2002</v>
       </c>
       <c r="G10" t="n">
-        <v>152.2116666666667</v>
+        <v>152.1766666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>156</v>
       </c>
       <c r="F11" t="n">
-        <v>742.1282051282051</v>
+        <v>249.5329</v>
       </c>
       <c r="G11" t="n">
-        <v>152.2616666666667</v>
+        <v>152.2116666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>155.3</v>
+        <v>156</v>
       </c>
       <c r="C12" t="n">
-        <v>155.3</v>
+        <v>156</v>
       </c>
       <c r="D12" t="n">
-        <v>155.3</v>
+        <v>156</v>
       </c>
       <c r="E12" t="n">
-        <v>155.3</v>
+        <v>156</v>
       </c>
       <c r="F12" t="n">
-        <v>1080.0445</v>
+        <v>742.1282051282051</v>
       </c>
       <c r="G12" t="n">
-        <v>152.3616666666667</v>
+        <v>152.2616666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>155.1</v>
+        <v>155.3</v>
       </c>
       <c r="C13" t="n">
-        <v>155.1</v>
+        <v>155.3</v>
       </c>
       <c r="D13" t="n">
-        <v>155.1</v>
+        <v>155.3</v>
       </c>
       <c r="E13" t="n">
-        <v>155</v>
+        <v>155.3</v>
       </c>
       <c r="F13" t="n">
-        <v>4815.1625</v>
+        <v>1080.0445</v>
       </c>
       <c r="G13" t="n">
-        <v>152.4783333333334</v>
+        <v>152.3616666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155</v>
+        <v>155.1</v>
       </c>
       <c r="C14" t="n">
-        <v>155</v>
+        <v>155.1</v>
       </c>
       <c r="D14" t="n">
-        <v>155</v>
+        <v>155.1</v>
       </c>
       <c r="E14" t="n">
         <v>155</v>
       </c>
       <c r="F14" t="n">
-        <v>4063.9836</v>
+        <v>4815.1625</v>
       </c>
       <c r="G14" t="n">
-        <v>152.5933333333333</v>
+        <v>152.4783333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>155</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>4063.9836</v>
       </c>
       <c r="G15" t="n">
-        <v>152.6133333333333</v>
+        <v>152.5933333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D16" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E16" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F16" t="n">
-        <v>1667.2062</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>152.5816666666667</v>
+        <v>152.6133333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>151.6</v>
+        <v>153</v>
       </c>
       <c r="C17" t="n">
-        <v>151.4</v>
+        <v>152</v>
       </c>
       <c r="D17" t="n">
-        <v>151.6</v>
+        <v>153</v>
       </c>
       <c r="E17" t="n">
-        <v>151.4</v>
+        <v>152</v>
       </c>
       <c r="F17" t="n">
-        <v>497.2852</v>
+        <v>1667.2062</v>
       </c>
       <c r="G17" t="n">
-        <v>152.6</v>
+        <v>152.5816666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="C18" t="n">
-        <v>152</v>
+        <v>151.4</v>
       </c>
       <c r="D18" t="n">
-        <v>152</v>
+        <v>151.6</v>
       </c>
       <c r="E18" t="n">
-        <v>152</v>
+        <v>151.4</v>
       </c>
       <c r="F18" t="n">
-        <v>138.1</v>
+        <v>497.2852</v>
       </c>
       <c r="G18" t="n">
-        <v>152.5533333333334</v>
+        <v>152.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>152</v>
       </c>
       <c r="C19" t="n">
-        <v>151.2</v>
+        <v>152</v>
       </c>
       <c r="D19" t="n">
         <v>152</v>
       </c>
       <c r="E19" t="n">
-        <v>151.2</v>
+        <v>152</v>
       </c>
       <c r="F19" t="n">
-        <v>292.8158</v>
+        <v>138.1</v>
       </c>
       <c r="G19" t="n">
-        <v>152.4933333333334</v>
+        <v>152.5533333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>152</v>
+      </c>
+      <c r="C20" t="n">
         <v>151.2</v>
       </c>
-      <c r="C20" t="n">
-        <v>149.1</v>
-      </c>
       <c r="D20" t="n">
+        <v>152</v>
+      </c>
+      <c r="E20" t="n">
         <v>151.2</v>
       </c>
-      <c r="E20" t="n">
-        <v>149.1</v>
-      </c>
       <c r="F20" t="n">
-        <v>3693.4907</v>
+        <v>292.8158</v>
       </c>
       <c r="G20" t="n">
-        <v>152.3983333333334</v>
+        <v>152.4933333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>152</v>
+        <v>151.2</v>
       </c>
       <c r="C21" t="n">
-        <v>151.9</v>
+        <v>149.1</v>
       </c>
       <c r="D21" t="n">
-        <v>152</v>
+        <v>151.2</v>
       </c>
       <c r="E21" t="n">
-        <v>151.9</v>
+        <v>149.1</v>
       </c>
       <c r="F21" t="n">
-        <v>2516.7433</v>
+        <v>3693.4907</v>
       </c>
       <c r="G21" t="n">
-        <v>152.4633333333334</v>
+        <v>152.3983333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>152.8</v>
+        <v>152</v>
       </c>
       <c r="C22" t="n">
-        <v>152.8</v>
+        <v>151.9</v>
       </c>
       <c r="D22" t="n">
-        <v>152.8</v>
+        <v>152</v>
       </c>
       <c r="E22" t="n">
-        <v>152.8</v>
+        <v>151.9</v>
       </c>
       <c r="F22" t="n">
-        <v>343</v>
+        <v>2516.7433</v>
       </c>
       <c r="G22" t="n">
-        <v>152.5616666666668</v>
+        <v>152.4633333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>152.8</v>
       </c>
       <c r="F23" t="n">
-        <v>893.9999</v>
+        <v>343</v>
       </c>
       <c r="G23" t="n">
-        <v>152.6533333333334</v>
+        <v>152.5616666666668</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>152.8</v>
       </c>
       <c r="C24" t="n">
-        <v>158</v>
+        <v>152.8</v>
       </c>
       <c r="D24" t="n">
-        <v>158</v>
+        <v>152.8</v>
       </c>
       <c r="E24" t="n">
-        <v>151.1</v>
+        <v>152.8</v>
       </c>
       <c r="F24" t="n">
-        <v>181.5329</v>
+        <v>893.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>152.8500000000001</v>
+        <v>152.6533333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>157.7</v>
+        <v>152.8</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>158</v>
       </c>
       <c r="D25" t="n">
-        <v>157.7</v>
+        <v>158</v>
       </c>
       <c r="E25" t="n">
-        <v>157.7</v>
+        <v>151.1</v>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>181.5329</v>
       </c>
       <c r="G25" t="n">
-        <v>152.9950000000001</v>
+        <v>152.8500000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>150.7</v>
+        <v>157.7</v>
       </c>
       <c r="C26" t="n">
-        <v>150.7</v>
+        <v>157.7</v>
       </c>
       <c r="D26" t="n">
-        <v>150.7</v>
+        <v>157.7</v>
       </c>
       <c r="E26" t="n">
-        <v>150.7</v>
+        <v>157.7</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>153.0383333333334</v>
+        <v>152.9950000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>150.3</v>
+        <v>150.7</v>
       </c>
       <c r="C27" t="n">
-        <v>150.3</v>
+        <v>150.7</v>
       </c>
       <c r="D27" t="n">
-        <v>150.3</v>
+        <v>150.7</v>
       </c>
       <c r="E27" t="n">
-        <v>150.3</v>
+        <v>150.7</v>
       </c>
       <c r="F27" t="n">
         <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>153.1066666666667</v>
+        <v>153.0383333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>151.2</v>
+        <v>150.3</v>
       </c>
       <c r="C28" t="n">
-        <v>151.2</v>
+        <v>150.3</v>
       </c>
       <c r="D28" t="n">
-        <v>151.2</v>
+        <v>150.3</v>
       </c>
       <c r="E28" t="n">
-        <v>151.2</v>
+        <v>150.3</v>
       </c>
       <c r="F28" t="n">
-        <v>4093.8458</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>153.1700000000001</v>
+        <v>153.1066666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>151.2</v>
       </c>
       <c r="C29" t="n">
-        <v>150.4</v>
+        <v>151.2</v>
       </c>
       <c r="D29" t="n">
         <v>151.2</v>
       </c>
       <c r="E29" t="n">
-        <v>150.4</v>
+        <v>151.2</v>
       </c>
       <c r="F29" t="n">
-        <v>4106.624</v>
+        <v>4093.8458</v>
       </c>
       <c r="G29" t="n">
-        <v>153.1316666666667</v>
+        <v>153.1700000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>151</v>
+        <v>151.2</v>
       </c>
       <c r="C30" t="n">
         <v>150.4</v>
       </c>
       <c r="D30" t="n">
-        <v>151</v>
+        <v>151.2</v>
       </c>
       <c r="E30" t="n">
         <v>150.4</v>
       </c>
       <c r="F30" t="n">
-        <v>1723.123</v>
+        <v>4106.624</v>
       </c>
       <c r="G30" t="n">
-        <v>153.1233333333334</v>
+        <v>153.1316666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>150.4</v>
       </c>
       <c r="F31" t="n">
-        <v>2486.0817</v>
+        <v>1723.123</v>
       </c>
       <c r="G31" t="n">
-        <v>153.0666666666667</v>
+        <v>153.1233333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>151.2</v>
+        <v>151</v>
       </c>
       <c r="C32" t="n">
-        <v>151.2</v>
+        <v>150.4</v>
       </c>
       <c r="D32" t="n">
-        <v>151.2</v>
+        <v>151</v>
       </c>
       <c r="E32" t="n">
-        <v>151.2</v>
+        <v>150.4</v>
       </c>
       <c r="F32" t="n">
-        <v>619.1857</v>
+        <v>2486.0817</v>
       </c>
       <c r="G32" t="n">
-        <v>153.1033333333334</v>
+        <v>153.0666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>151.1</v>
+        <v>151.2</v>
       </c>
       <c r="C33" t="n">
-        <v>151.1</v>
+        <v>151.2</v>
       </c>
       <c r="D33" t="n">
-        <v>151.1</v>
+        <v>151.2</v>
       </c>
       <c r="E33" t="n">
-        <v>151.1</v>
+        <v>151.2</v>
       </c>
       <c r="F33" t="n">
-        <v>3430.4252</v>
+        <v>619.1857</v>
       </c>
       <c r="G33" t="n">
-        <v>153.0733333333334</v>
+        <v>153.1033333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>151.2</v>
+        <v>151.1</v>
       </c>
       <c r="C34" t="n">
-        <v>158</v>
+        <v>151.1</v>
       </c>
       <c r="D34" t="n">
-        <v>158</v>
+        <v>151.1</v>
       </c>
       <c r="E34" t="n">
-        <v>151.2</v>
+        <v>151.1</v>
       </c>
       <c r="F34" t="n">
-        <v>7076.9044</v>
+        <v>3430.4252</v>
       </c>
       <c r="G34" t="n">
-        <v>153.1933333333334</v>
+        <v>153.0733333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>158.9</v>
+        <v>151.2</v>
       </c>
       <c r="C35" t="n">
-        <v>152.2</v>
+        <v>158</v>
       </c>
       <c r="D35" t="n">
-        <v>158.9</v>
+        <v>158</v>
       </c>
       <c r="E35" t="n">
-        <v>152.2</v>
+        <v>151.2</v>
       </c>
       <c r="F35" t="n">
-        <v>4467.9791</v>
+        <v>7076.9044</v>
       </c>
       <c r="G35" t="n">
-        <v>153.2150000000001</v>
+        <v>153.1933333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>157.9</v>
+        <v>158.9</v>
       </c>
       <c r="C36" t="n">
-        <v>157.9</v>
+        <v>152.2</v>
       </c>
       <c r="D36" t="n">
-        <v>157.9</v>
+        <v>158.9</v>
       </c>
       <c r="E36" t="n">
-        <v>157.9</v>
+        <v>152.2</v>
       </c>
       <c r="F36" t="n">
-        <v>1137.3115</v>
+        <v>4467.9791</v>
       </c>
       <c r="G36" t="n">
-        <v>153.3450000000001</v>
+        <v>153.2150000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>157</v>
+        <v>157.9</v>
       </c>
       <c r="C37" t="n">
-        <v>153</v>
+        <v>157.9</v>
       </c>
       <c r="D37" t="n">
-        <v>157</v>
+        <v>157.9</v>
       </c>
       <c r="E37" t="n">
-        <v>153</v>
+        <v>157.9</v>
       </c>
       <c r="F37" t="n">
-        <v>1500.3027</v>
+        <v>1137.3115</v>
       </c>
       <c r="G37" t="n">
-        <v>153.4316666666668</v>
+        <v>153.3450000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" t="n">
-        <v>155.1</v>
+        <v>153</v>
       </c>
       <c r="D38" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E38" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F38" t="n">
-        <v>998</v>
+        <v>1500.3027</v>
       </c>
       <c r="G38" t="n">
-        <v>153.5716666666668</v>
+        <v>153.4316666666668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" t="n">
         <v>155.1</v>
       </c>
       <c r="D39" t="n">
-        <v>155.1</v>
+        <v>156</v>
       </c>
       <c r="E39" t="n">
         <v>155</v>
       </c>
       <c r="F39" t="n">
-        <v>2797.2648</v>
+        <v>998</v>
       </c>
       <c r="G39" t="n">
-        <v>153.6800000000001</v>
+        <v>153.5716666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C40" t="n">
         <v>155.1</v>
       </c>
       <c r="D40" t="n">
-        <v>158</v>
+        <v>155.1</v>
       </c>
       <c r="E40" t="n">
-        <v>155.1</v>
+        <v>155</v>
       </c>
       <c r="F40" t="n">
-        <v>1644.3061</v>
+        <v>2797.2648</v>
       </c>
       <c r="G40" t="n">
-        <v>153.7866666666668</v>
+        <v>153.6800000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>158.6</v>
+        <v>158</v>
       </c>
       <c r="C41" t="n">
-        <v>156</v>
+        <v>155.1</v>
       </c>
       <c r="D41" t="n">
-        <v>158.7</v>
+        <v>158</v>
       </c>
       <c r="E41" t="n">
-        <v>156</v>
+        <v>155.1</v>
       </c>
       <c r="F41" t="n">
-        <v>6561.4024</v>
+        <v>1644.3061</v>
       </c>
       <c r="G41" t="n">
-        <v>153.9033333333334</v>
+        <v>153.7866666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>156</v>
+        <v>158.6</v>
       </c>
       <c r="C42" t="n">
         <v>156</v>
       </c>
       <c r="D42" t="n">
-        <v>156</v>
+        <v>158.7</v>
       </c>
       <c r="E42" t="n">
         <v>156</v>
       </c>
       <c r="F42" t="n">
-        <v>1121.6</v>
+        <v>6561.4024</v>
       </c>
       <c r="G42" t="n">
-        <v>154.0066666666668</v>
+        <v>153.9033333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>156</v>
       </c>
       <c r="C43" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D43" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E43" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F43" t="n">
-        <v>68.24868553459119</v>
+        <v>1121.6</v>
       </c>
       <c r="G43" t="n">
-        <v>154.1900000000001</v>
+        <v>154.0066666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C44" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D44" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E44" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F44" t="n">
-        <v>2333.4998</v>
+        <v>68.24868553459119</v>
       </c>
       <c r="G44" t="n">
-        <v>154.3233333333334</v>
+        <v>154.1900000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C45" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D45" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E45" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F45" t="n">
-        <v>10113.12881446541</v>
+        <v>2333.4998</v>
       </c>
       <c r="G45" t="n">
-        <v>154.5233333333335</v>
+        <v>154.3233333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>158</v>
+      </c>
+      <c r="C46" t="n">
         <v>160</v>
-      </c>
-      <c r="C46" t="n">
-        <v>157.1</v>
       </c>
       <c r="D46" t="n">
         <v>160</v>
       </c>
       <c r="E46" t="n">
-        <v>157.1</v>
+        <v>158</v>
       </c>
       <c r="F46" t="n">
-        <v>8419.236500000001</v>
+        <v>10113.12881446541</v>
       </c>
       <c r="G46" t="n">
-        <v>154.5950000000001</v>
+        <v>154.5233333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>159.9</v>
+        <v>160</v>
       </c>
       <c r="C47" t="n">
-        <v>159.9</v>
+        <v>157.1</v>
       </c>
       <c r="D47" t="n">
-        <v>159.9</v>
+        <v>160</v>
       </c>
       <c r="E47" t="n">
-        <v>153.2</v>
+        <v>157.1</v>
       </c>
       <c r="F47" t="n">
-        <v>23043.1357</v>
+        <v>8419.236500000001</v>
       </c>
       <c r="G47" t="n">
-        <v>154.8033333333335</v>
+        <v>154.5950000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>159.9</v>
       </c>
       <c r="C48" t="n">
-        <v>157.1</v>
+        <v>159.9</v>
       </c>
       <c r="D48" t="n">
         <v>159.9</v>
       </c>
       <c r="E48" t="n">
-        <v>157.1</v>
+        <v>153.2</v>
       </c>
       <c r="F48" t="n">
-        <v>3097.178</v>
+        <v>23043.1357</v>
       </c>
       <c r="G48" t="n">
-        <v>154.8933333333335</v>
+        <v>154.8033333333335</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>159</v>
+        <v>159.9</v>
       </c>
       <c r="C49" t="n">
-        <v>159.9</v>
+        <v>157.1</v>
       </c>
       <c r="D49" t="n">
         <v>159.9</v>
       </c>
       <c r="E49" t="n">
-        <v>159</v>
+        <v>157.1</v>
       </c>
       <c r="F49" t="n">
-        <v>1434.3299</v>
+        <v>3097.178</v>
       </c>
       <c r="G49" t="n">
-        <v>155.0583333333335</v>
+        <v>154.8933333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>159</v>
+      </c>
+      <c r="C50" t="n">
         <v>159.9</v>
-      </c>
-      <c r="C50" t="n">
-        <v>158.1</v>
       </c>
       <c r="D50" t="n">
         <v>159.9</v>
       </c>
       <c r="E50" t="n">
-        <v>158.1</v>
+        <v>159</v>
       </c>
       <c r="F50" t="n">
-        <v>3840.77</v>
+        <v>1434.3299</v>
       </c>
       <c r="G50" t="n">
-        <v>155.2083333333335</v>
+        <v>155.0583333333335</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>158.1</v>
+        <v>159.9</v>
       </c>
       <c r="C51" t="n">
         <v>158.1</v>
       </c>
       <c r="D51" t="n">
-        <v>158.1</v>
+        <v>159.9</v>
       </c>
       <c r="E51" t="n">
         <v>158.1</v>
       </c>
       <c r="F51" t="n">
-        <v>1050.7471</v>
+        <v>3840.77</v>
       </c>
       <c r="G51" t="n">
-        <v>155.3100000000001</v>
+        <v>155.2083333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>158</v>
+        <v>158.1</v>
       </c>
       <c r="C52" t="n">
-        <v>157.1</v>
+        <v>158.1</v>
       </c>
       <c r="D52" t="n">
-        <v>158</v>
+        <v>158.1</v>
       </c>
       <c r="E52" t="n">
-        <v>157.1</v>
+        <v>158.1</v>
       </c>
       <c r="F52" t="n">
-        <v>2177.266</v>
+        <v>1050.7471</v>
       </c>
       <c r="G52" t="n">
-        <v>155.3716666666668</v>
+        <v>155.3100000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>157.1</v>
+        <v>158</v>
       </c>
       <c r="C53" t="n">
         <v>157.1</v>
       </c>
       <c r="D53" t="n">
-        <v>157.1</v>
+        <v>158</v>
       </c>
       <c r="E53" t="n">
         <v>157.1</v>
       </c>
       <c r="F53" t="n">
-        <v>4490.6404</v>
+        <v>2177.266</v>
       </c>
       <c r="G53" t="n">
-        <v>155.3283333333335</v>
+        <v>155.3716666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>154.6</v>
+        <v>157.1</v>
       </c>
       <c r="C54" t="n">
-        <v>154.5</v>
+        <v>157.1</v>
       </c>
       <c r="D54" t="n">
-        <v>154.6</v>
+        <v>157.1</v>
       </c>
       <c r="E54" t="n">
-        <v>154.5</v>
+        <v>157.1</v>
       </c>
       <c r="F54" t="n">
-        <v>2825.7379</v>
+        <v>4490.6404</v>
       </c>
       <c r="G54" t="n">
-        <v>155.2116666666668</v>
+        <v>155.3283333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>154.4</v>
+        <v>154.6</v>
       </c>
       <c r="C55" t="n">
-        <v>154.4</v>
+        <v>154.5</v>
       </c>
       <c r="D55" t="n">
-        <v>154.4</v>
+        <v>154.6</v>
       </c>
       <c r="E55" t="n">
-        <v>154.4</v>
+        <v>154.5</v>
       </c>
       <c r="F55" t="n">
-        <v>25089.0835</v>
+        <v>2825.7379</v>
       </c>
       <c r="G55" t="n">
-        <v>155.1183333333335</v>
+        <v>155.2116666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>156.9</v>
+        <v>154.4</v>
       </c>
       <c r="C56" t="n">
-        <v>158</v>
+        <v>154.4</v>
       </c>
       <c r="D56" t="n">
-        <v>158</v>
+        <v>154.4</v>
       </c>
       <c r="E56" t="n">
-        <v>156.9</v>
+        <v>154.4</v>
       </c>
       <c r="F56" t="n">
-        <v>14954.8378</v>
+        <v>25089.0835</v>
       </c>
       <c r="G56" t="n">
-        <v>155.1650000000001</v>
+        <v>155.1183333333335</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="C57" t="n">
         <v>158</v>
       </c>
-      <c r="C57" t="n">
-        <v>156</v>
-      </c>
       <c r="D57" t="n">
-        <v>159.4</v>
+        <v>158</v>
       </c>
       <c r="E57" t="n">
-        <v>155.1</v>
+        <v>156.9</v>
       </c>
       <c r="F57" t="n">
-        <v>6797.0217</v>
+        <v>14954.8378</v>
       </c>
       <c r="G57" t="n">
-        <v>155.1483333333335</v>
+        <v>155.1650000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C58" t="n">
         <v>156</v>
       </c>
       <c r="D58" t="n">
-        <v>156</v>
+        <v>159.4</v>
       </c>
       <c r="E58" t="n">
-        <v>156</v>
+        <v>155.1</v>
       </c>
       <c r="F58" t="n">
-        <v>15</v>
+        <v>6797.0217</v>
       </c>
       <c r="G58" t="n">
-        <v>155.0983333333334</v>
+        <v>155.1483333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,19 +2428,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C59" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D59" t="n">
-        <v>159.4</v>
+        <v>156</v>
       </c>
       <c r="E59" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F59" t="n">
-        <v>260.6116</v>
+        <v>15</v>
       </c>
       <c r="G59" t="n">
         <v>155.0983333333334</v>
@@ -2466,19 +2466,19 @@
         <v>159</v>
       </c>
       <c r="C60" t="n">
-        <v>159.4</v>
+        <v>155</v>
       </c>
       <c r="D60" t="n">
         <v>159.4</v>
       </c>
       <c r="E60" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F60" t="n">
-        <v>19.574</v>
+        <v>260.6116</v>
       </c>
       <c r="G60" t="n">
-        <v>155.1716666666668</v>
+        <v>155.0983333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C61" t="n">
-        <v>156</v>
+        <v>159.4</v>
       </c>
       <c r="D61" t="n">
-        <v>156</v>
+        <v>159.4</v>
       </c>
       <c r="E61" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F61" t="n">
-        <v>136.89</v>
+        <v>19.574</v>
       </c>
       <c r="G61" t="n">
-        <v>155.1383333333334</v>
+        <v>155.1716666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>159.4</v>
+        <v>156</v>
       </c>
       <c r="C62" t="n">
-        <v>159.9</v>
+        <v>156</v>
       </c>
       <c r="D62" t="n">
-        <v>159.9</v>
+        <v>156</v>
       </c>
       <c r="E62" t="n">
-        <v>159.4</v>
+        <v>156</v>
       </c>
       <c r="F62" t="n">
-        <v>1066.63743352095</v>
+        <v>136.89</v>
       </c>
       <c r="G62" t="n">
-        <v>155.1366666666668</v>
+        <v>155.1383333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,10 +2568,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="C63" t="n">
         <v>159.9</v>
-      </c>
-      <c r="C63" t="n">
-        <v>159.8</v>
       </c>
       <c r="D63" t="n">
         <v>159.9</v>
@@ -2580,10 +2580,10 @@
         <v>159.4</v>
       </c>
       <c r="F63" t="n">
-        <v>5496.6806</v>
+        <v>1066.63743352095</v>
       </c>
       <c r="G63" t="n">
-        <v>155.1333333333334</v>
+        <v>155.1366666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>159.4</v>
+        <v>159.9</v>
       </c>
       <c r="C64" t="n">
         <v>159.8</v>
       </c>
       <c r="D64" t="n">
-        <v>159.8</v>
+        <v>159.9</v>
       </c>
       <c r="E64" t="n">
-        <v>155.2</v>
+        <v>159.4</v>
       </c>
       <c r="F64" t="n">
-        <v>809.4502</v>
+        <v>5496.6806</v>
       </c>
       <c r="G64" t="n">
-        <v>155.1966666666667</v>
+        <v>155.1333333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>159.5</v>
+        <v>159.4</v>
       </c>
       <c r="C65" t="n">
-        <v>159.5</v>
+        <v>159.8</v>
       </c>
       <c r="D65" t="n">
-        <v>159.5</v>
+        <v>159.8</v>
       </c>
       <c r="E65" t="n">
-        <v>159.5</v>
+        <v>155.2</v>
       </c>
       <c r="F65" t="n">
-        <v>193.3674</v>
+        <v>809.4502</v>
       </c>
       <c r="G65" t="n">
-        <v>155.2550000000001</v>
+        <v>155.1966666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>156</v>
+        <v>159.5</v>
       </c>
       <c r="C66" t="n">
         <v>159.5</v>
@@ -2682,13 +2682,13 @@
         <v>159.5</v>
       </c>
       <c r="E66" t="n">
-        <v>155.2</v>
+        <v>159.5</v>
       </c>
       <c r="F66" t="n">
-        <v>398.7197</v>
+        <v>193.3674</v>
       </c>
       <c r="G66" t="n">
-        <v>155.3283333333334</v>
+        <v>155.2550000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>156</v>
       </c>
       <c r="C67" t="n">
-        <v>155.2</v>
+        <v>159.5</v>
       </c>
       <c r="D67" t="n">
-        <v>156</v>
+        <v>159.5</v>
       </c>
       <c r="E67" t="n">
         <v>155.2</v>
       </c>
       <c r="F67" t="n">
-        <v>400</v>
+        <v>398.7197</v>
       </c>
       <c r="G67" t="n">
-        <v>155.3300000000001</v>
+        <v>155.3283333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C68" t="n">
-        <v>158</v>
+        <v>155.2</v>
       </c>
       <c r="D68" t="n">
-        <v>159.4</v>
+        <v>156</v>
       </c>
       <c r="E68" t="n">
         <v>155.2</v>
       </c>
       <c r="F68" t="n">
-        <v>1189.7142</v>
+        <v>400</v>
       </c>
       <c r="G68" t="n">
-        <v>155.3633333333334</v>
+        <v>155.3300000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>155.2</v>
+        <v>158</v>
       </c>
       <c r="C69" t="n">
-        <v>159.2</v>
+        <v>158</v>
       </c>
       <c r="D69" t="n">
-        <v>159.2</v>
+        <v>159.4</v>
       </c>
       <c r="E69" t="n">
         <v>155.2</v>
       </c>
       <c r="F69" t="n">
-        <v>3438.0972</v>
+        <v>1189.7142</v>
       </c>
       <c r="G69" t="n">
-        <v>155.4166666666668</v>
+        <v>155.3633333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>158.8</v>
+        <v>155.2</v>
       </c>
       <c r="C70" t="n">
-        <v>155</v>
+        <v>159.2</v>
       </c>
       <c r="D70" t="n">
-        <v>158.8</v>
+        <v>159.2</v>
       </c>
       <c r="E70" t="n">
-        <v>155</v>
+        <v>155.2</v>
       </c>
       <c r="F70" t="n">
-        <v>547.0273999999999</v>
+        <v>3438.0972</v>
       </c>
       <c r="G70" t="n">
-        <v>155.4000000000001</v>
+        <v>155.4166666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>157.9</v>
+        <v>158.8</v>
       </c>
       <c r="C71" t="n">
-        <v>157.9</v>
+        <v>155</v>
       </c>
       <c r="D71" t="n">
-        <v>157.9</v>
+        <v>158.8</v>
       </c>
       <c r="E71" t="n">
-        <v>157.9</v>
+        <v>155</v>
       </c>
       <c r="F71" t="n">
-        <v>144.272</v>
+        <v>547.0273999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>155.4316666666668</v>
+        <v>155.4000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>156</v>
+        <v>157.9</v>
       </c>
       <c r="C72" t="n">
-        <v>155.4</v>
+        <v>157.9</v>
       </c>
       <c r="D72" t="n">
-        <v>158</v>
+        <v>157.9</v>
       </c>
       <c r="E72" t="n">
-        <v>155.4</v>
+        <v>157.9</v>
       </c>
       <c r="F72" t="n">
-        <v>6921.9281</v>
+        <v>144.272</v>
       </c>
       <c r="G72" t="n">
-        <v>155.4333333333334</v>
+        <v>155.4316666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" t="n">
-        <v>155</v>
+        <v>155.4</v>
       </c>
       <c r="D73" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E73" t="n">
-        <v>155</v>
+        <v>155.4</v>
       </c>
       <c r="F73" t="n">
-        <v>477.635</v>
+        <v>6921.9281</v>
       </c>
       <c r="G73" t="n">
-        <v>155.4316666666668</v>
+        <v>155.4333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>155</v>
       </c>
       <c r="C74" t="n">
-        <v>157.9</v>
+        <v>155</v>
       </c>
       <c r="D74" t="n">
-        <v>157.9</v>
+        <v>155</v>
       </c>
       <c r="E74" t="n">
         <v>155</v>
       </c>
       <c r="F74" t="n">
-        <v>2186.6142</v>
+        <v>477.635</v>
       </c>
       <c r="G74" t="n">
-        <v>155.4800000000001</v>
+        <v>155.4316666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>155</v>
       </c>
       <c r="C75" t="n">
-        <v>154.1</v>
+        <v>157.9</v>
       </c>
       <c r="D75" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="E75" t="n">
         <v>155</v>
       </c>
-      <c r="E75" t="n">
-        <v>154.1</v>
-      </c>
       <c r="F75" t="n">
-        <v>3943.4699</v>
+        <v>2186.6142</v>
       </c>
       <c r="G75" t="n">
-        <v>155.4650000000001</v>
+        <v>155.4800000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>154.1</v>
+        <v>155</v>
       </c>
       <c r="C76" t="n">
         <v>154.1</v>
       </c>
       <c r="D76" t="n">
-        <v>154.1</v>
+        <v>155</v>
       </c>
       <c r="E76" t="n">
         <v>154.1</v>
       </c>
       <c r="F76" t="n">
-        <v>2169.5671</v>
+        <v>3943.4699</v>
       </c>
       <c r="G76" t="n">
-        <v>155.5000000000001</v>
+        <v>155.4650000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>153.4</v>
+        <v>154.1</v>
       </c>
       <c r="C77" t="n">
-        <v>153.4</v>
+        <v>154.1</v>
       </c>
       <c r="D77" t="n">
-        <v>153.4</v>
+        <v>154.1</v>
       </c>
       <c r="E77" t="n">
-        <v>153.4</v>
+        <v>154.1</v>
       </c>
       <c r="F77" t="n">
-        <v>1345.6433</v>
+        <v>2169.5671</v>
       </c>
       <c r="G77" t="n">
-        <v>155.5333333333334</v>
+        <v>155.5000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>155</v>
+        <v>153.4</v>
       </c>
       <c r="C78" t="n">
-        <v>152.6</v>
+        <v>153.4</v>
       </c>
       <c r="D78" t="n">
-        <v>155</v>
+        <v>153.4</v>
       </c>
       <c r="E78" t="n">
-        <v>152.6</v>
+        <v>153.4</v>
       </c>
       <c r="F78" t="n">
-        <v>694.3054</v>
+        <v>1345.6433</v>
       </c>
       <c r="G78" t="n">
-        <v>155.5433333333334</v>
+        <v>155.5333333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C79" t="n">
-        <v>154</v>
+        <v>152.6</v>
       </c>
       <c r="D79" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E79" t="n">
-        <v>154</v>
+        <v>152.6</v>
       </c>
       <c r="F79" t="n">
-        <v>73</v>
+        <v>694.3054</v>
       </c>
       <c r="G79" t="n">
-        <v>155.5900000000001</v>
+        <v>155.5433333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D80" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F80" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G80" t="n">
-        <v>155.6883333333334</v>
+        <v>155.5900000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="C81" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="D81" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="E81" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G81" t="n">
-        <v>155.7383333333334</v>
+        <v>155.6883333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>154.9</v>
       </c>
       <c r="F82" t="n">
-        <v>2378.425</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>155.7733333333334</v>
+        <v>155.7383333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>154.9</v>
       </c>
       <c r="F83" t="n">
-        <v>1123</v>
+        <v>2378.425</v>
       </c>
       <c r="G83" t="n">
-        <v>155.8083333333334</v>
+        <v>155.7733333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>154.9</v>
       </c>
       <c r="F84" t="n">
-        <v>551.2298</v>
+        <v>1123</v>
       </c>
       <c r="G84" t="n">
-        <v>155.7566666666667</v>
+        <v>155.8083333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>152.9</v>
+        <v>154.9</v>
       </c>
       <c r="C85" t="n">
-        <v>152.8</v>
+        <v>154.9</v>
       </c>
       <c r="D85" t="n">
-        <v>152.9</v>
+        <v>154.9</v>
       </c>
       <c r="E85" t="n">
-        <v>152.8</v>
+        <v>154.9</v>
       </c>
       <c r="F85" t="n">
-        <v>758.0779</v>
+        <v>551.2298</v>
       </c>
       <c r="G85" t="n">
-        <v>155.6750000000001</v>
+        <v>155.7566666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>154</v>
+        <v>152.9</v>
       </c>
       <c r="C86" t="n">
-        <v>154.9</v>
+        <v>152.8</v>
       </c>
       <c r="D86" t="n">
-        <v>154.9</v>
+        <v>152.9</v>
       </c>
       <c r="E86" t="n">
-        <v>154</v>
+        <v>152.8</v>
       </c>
       <c r="F86" t="n">
-        <v>3223.3373</v>
+        <v>758.0779</v>
       </c>
       <c r="G86" t="n">
-        <v>155.745</v>
+        <v>155.6750000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C87" t="n">
-        <v>156</v>
+        <v>154.9</v>
       </c>
       <c r="D87" t="n">
-        <v>156</v>
+        <v>154.9</v>
       </c>
       <c r="E87" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F87" t="n">
-        <v>6.0801</v>
+        <v>3223.3373</v>
       </c>
       <c r="G87" t="n">
-        <v>155.8400000000001</v>
+        <v>155.745</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3446,19 @@
         <v>156</v>
       </c>
       <c r="C88" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D88" t="n">
         <v>156</v>
       </c>
       <c r="E88" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F88" t="n">
-        <v>4868.0526</v>
+        <v>6.0801</v>
       </c>
       <c r="G88" t="n">
-        <v>155.9033333333334</v>
+        <v>155.8400000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C89" t="n">
         <v>155</v>
       </c>
       <c r="D89" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E89" t="n">
         <v>155</v>
       </c>
       <c r="F89" t="n">
-        <v>265</v>
+        <v>4868.0526</v>
       </c>
       <c r="G89" t="n">
-        <v>155.98</v>
+        <v>155.9033333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>155</v>
       </c>
       <c r="F90" t="n">
-        <v>2777.0817</v>
+        <v>265</v>
       </c>
       <c r="G90" t="n">
-        <v>156.0566666666667</v>
+        <v>155.98</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C91" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="D91" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E91" t="n">
-        <v>154.9</v>
+        <v>155</v>
       </c>
       <c r="F91" t="n">
-        <v>204</v>
+        <v>2777.0817</v>
       </c>
       <c r="G91" t="n">
-        <v>156.1316666666667</v>
+        <v>156.0566666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C92" t="n">
         <v>154.9</v>
       </c>
       <c r="D92" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E92" t="n">
         <v>154.9</v>
       </c>
       <c r="F92" t="n">
-        <v>3844.1392</v>
+        <v>204</v>
       </c>
       <c r="G92" t="n">
-        <v>156.1933333333334</v>
+        <v>156.1316666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>159</v>
+      </c>
+      <c r="C93" t="n">
         <v>154.9</v>
       </c>
-      <c r="C93" t="n">
-        <v>156</v>
-      </c>
       <c r="D93" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E93" t="n">
         <v>154.9</v>
       </c>
       <c r="F93" t="n">
-        <v>540.9404</v>
+        <v>3844.1392</v>
       </c>
       <c r="G93" t="n">
-        <v>156.275</v>
+        <v>156.1933333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="C94" t="n">
         <v>156</v>
       </c>
-      <c r="C94" t="n">
-        <v>154.9</v>
-      </c>
       <c r="D94" t="n">
-        <v>156.9</v>
+        <v>156</v>
       </c>
       <c r="E94" t="n">
         <v>154.9</v>
       </c>
       <c r="F94" t="n">
-        <v>5892.0438</v>
+        <v>540.9404</v>
       </c>
       <c r="G94" t="n">
-        <v>156.2233333333334</v>
+        <v>156.275</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C95" t="n">
-        <v>157</v>
+        <v>154.9</v>
       </c>
       <c r="D95" t="n">
-        <v>157</v>
+        <v>156.9</v>
       </c>
       <c r="E95" t="n">
-        <v>157</v>
+        <v>154.9</v>
       </c>
       <c r="F95" t="n">
-        <v>14</v>
+        <v>5892.0438</v>
       </c>
       <c r="G95" t="n">
-        <v>156.3033333333333</v>
+        <v>156.2233333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>157</v>
       </c>
       <c r="F96" t="n">
-        <v>12.7698</v>
+        <v>14</v>
       </c>
       <c r="G96" t="n">
-        <v>156.2883333333334</v>
+        <v>156.3033333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>154.9</v>
+        <v>157</v>
       </c>
       <c r="C97" t="n">
-        <v>154.9</v>
+        <v>157</v>
       </c>
       <c r="D97" t="n">
-        <v>154.9</v>
+        <v>157</v>
       </c>
       <c r="E97" t="n">
-        <v>154.9</v>
+        <v>157</v>
       </c>
       <c r="F97" t="n">
-        <v>2777</v>
+        <v>12.7698</v>
       </c>
       <c r="G97" t="n">
-        <v>156.32</v>
+        <v>156.2883333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>154.9</v>
       </c>
       <c r="F98" t="n">
-        <v>415.5612</v>
+        <v>2777</v>
       </c>
       <c r="G98" t="n">
-        <v>156.3166666666667</v>
+        <v>156.32</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>154</v>
+        <v>154.9</v>
       </c>
       <c r="C99" t="n">
-        <v>157</v>
+        <v>154.9</v>
       </c>
       <c r="D99" t="n">
-        <v>157</v>
+        <v>154.9</v>
       </c>
       <c r="E99" t="n">
-        <v>153.2</v>
+        <v>154.9</v>
       </c>
       <c r="F99" t="n">
-        <v>7037.4482</v>
+        <v>415.5612</v>
       </c>
       <c r="G99" t="n">
-        <v>156.3483333333333</v>
+        <v>156.3166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>154</v>
       </c>
       <c r="C100" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D100" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E100" t="n">
-        <v>154</v>
+        <v>153.2</v>
       </c>
       <c r="F100" t="n">
-        <v>205.9174</v>
+        <v>7037.4482</v>
       </c>
       <c r="G100" t="n">
-        <v>156.33</v>
+        <v>156.3483333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>152.9</v>
+        <v>154</v>
       </c>
       <c r="C101" t="n">
-        <v>155.7</v>
+        <v>154</v>
       </c>
       <c r="D101" t="n">
-        <v>155.7</v>
+        <v>154</v>
       </c>
       <c r="E101" t="n">
-        <v>152.4</v>
+        <v>154</v>
       </c>
       <c r="F101" t="n">
-        <v>24143.9254</v>
+        <v>205.9174</v>
       </c>
       <c r="G101" t="n">
-        <v>156.325</v>
+        <v>156.33</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>153.7</v>
+        <v>152.9</v>
       </c>
       <c r="C102" t="n">
-        <v>153.7</v>
+        <v>155.7</v>
       </c>
       <c r="D102" t="n">
-        <v>153.7</v>
+        <v>155.7</v>
       </c>
       <c r="E102" t="n">
-        <v>153.7</v>
+        <v>152.4</v>
       </c>
       <c r="F102" t="n">
-        <v>1638.9321</v>
+        <v>24143.9254</v>
       </c>
       <c r="G102" t="n">
-        <v>156.2866666666667</v>
+        <v>156.325</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>153.8</v>
+        <v>153.7</v>
       </c>
       <c r="C103" t="n">
-        <v>153.8</v>
+        <v>153.7</v>
       </c>
       <c r="D103" t="n">
-        <v>153.8</v>
+        <v>153.7</v>
       </c>
       <c r="E103" t="n">
-        <v>153.8</v>
+        <v>153.7</v>
       </c>
       <c r="F103" t="n">
-        <v>179.2735</v>
+        <v>1638.9321</v>
       </c>
       <c r="G103" t="n">
-        <v>156.2</v>
+        <v>156.2866666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>153.9</v>
+        <v>153.8</v>
       </c>
       <c r="C104" t="n">
-        <v>153.9</v>
+        <v>153.8</v>
       </c>
       <c r="D104" t="n">
-        <v>153.9</v>
+        <v>153.8</v>
       </c>
       <c r="E104" t="n">
-        <v>153.9</v>
+        <v>153.8</v>
       </c>
       <c r="F104" t="n">
-        <v>3315.483</v>
+        <v>179.2735</v>
       </c>
       <c r="G104" t="n">
-        <v>156.165</v>
+        <v>156.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>153.9</v>
       </c>
       <c r="F105" t="n">
-        <v>63.9838</v>
+        <v>3315.483</v>
       </c>
       <c r="G105" t="n">
-        <v>156.0633333333333</v>
+        <v>156.165</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>153.8</v>
+        <v>153.9</v>
       </c>
       <c r="C106" t="n">
-        <v>153.8</v>
+        <v>153.9</v>
       </c>
       <c r="D106" t="n">
-        <v>153.8</v>
+        <v>153.9</v>
       </c>
       <c r="E106" t="n">
-        <v>153.8</v>
+        <v>153.9</v>
       </c>
       <c r="F106" t="n">
-        <v>729.2309</v>
+        <v>63.9838</v>
       </c>
       <c r="G106" t="n">
-        <v>156.0083333333333</v>
+        <v>156.0633333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>153.8</v>
       </c>
       <c r="F107" t="n">
-        <v>17.348</v>
+        <v>729.2309</v>
       </c>
       <c r="G107" t="n">
-        <v>155.9066666666666</v>
+        <v>156.0083333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>152</v>
+        <v>153.8</v>
       </c>
       <c r="C108" t="n">
-        <v>152</v>
+        <v>153.8</v>
       </c>
       <c r="D108" t="n">
-        <v>152</v>
+        <v>153.8</v>
       </c>
       <c r="E108" t="n">
-        <v>152</v>
+        <v>153.8</v>
       </c>
       <c r="F108" t="n">
-        <v>1719.5365</v>
+        <v>17.348</v>
       </c>
       <c r="G108" t="n">
-        <v>155.8216666666666</v>
+        <v>155.9066666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>152</v>
       </c>
       <c r="F109" t="n">
-        <v>167</v>
+        <v>1719.5365</v>
       </c>
       <c r="G109" t="n">
-        <v>155.69</v>
+        <v>155.8216666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C110" t="n">
-        <v>153.8</v>
+        <v>152</v>
       </c>
       <c r="D110" t="n">
-        <v>153.8</v>
+        <v>152</v>
       </c>
       <c r="E110" t="n">
-        <v>150.3</v>
+        <v>152</v>
       </c>
       <c r="F110" t="n">
-        <v>6591.9523</v>
+        <v>167</v>
       </c>
       <c r="G110" t="n">
-        <v>155.6183333333333</v>
+        <v>155.69</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>153.8</v>
+        <v>151</v>
       </c>
       <c r="C111" t="n">
         <v>153.8</v>
@@ -4257,13 +4257,13 @@
         <v>153.8</v>
       </c>
       <c r="E111" t="n">
-        <v>153.8</v>
+        <v>150.3</v>
       </c>
       <c r="F111" t="n">
-        <v>4564.8934</v>
+        <v>6591.9523</v>
       </c>
       <c r="G111" t="n">
-        <v>155.5466666666666</v>
+        <v>155.6183333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>152</v>
+        <v>153.8</v>
       </c>
       <c r="C112" t="n">
-        <v>152</v>
+        <v>153.8</v>
       </c>
       <c r="D112" t="n">
-        <v>152</v>
+        <v>153.8</v>
       </c>
       <c r="E112" t="n">
-        <v>152</v>
+        <v>153.8</v>
       </c>
       <c r="F112" t="n">
-        <v>49.3457</v>
+        <v>4564.8934</v>
       </c>
       <c r="G112" t="n">
-        <v>155.4616666666666</v>
+        <v>155.5466666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C113" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D113" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E113" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F113" t="n">
-        <v>1838.5515</v>
+        <v>49.3457</v>
       </c>
       <c r="G113" t="n">
-        <v>155.3933333333333</v>
+        <v>155.4616666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="C114" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="D114" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="E114" t="n">
-        <v>151.4</v>
+        <v>153</v>
       </c>
       <c r="F114" t="n">
-        <v>3119.9149</v>
+        <v>1838.5515</v>
       </c>
       <c r="G114" t="n">
-        <v>155.3416666666666</v>
+        <v>155.3933333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>152.4</v>
+        <v>151.4</v>
       </c>
       <c r="C115" t="n">
-        <v>152.4</v>
+        <v>151.4</v>
       </c>
       <c r="D115" t="n">
-        <v>152.4</v>
+        <v>151.4</v>
       </c>
       <c r="E115" t="n">
-        <v>152.4</v>
+        <v>151.4</v>
       </c>
       <c r="F115" t="n">
-        <v>1329.6032</v>
+        <v>3119.9149</v>
       </c>
       <c r="G115" t="n">
-        <v>155.3083333333333</v>
+        <v>155.3416666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>152</v>
+        <v>152.4</v>
       </c>
       <c r="C116" t="n">
         <v>152.4</v>
@@ -4432,13 +4432,13 @@
         <v>152.4</v>
       </c>
       <c r="E116" t="n">
-        <v>152</v>
+        <v>152.4</v>
       </c>
       <c r="F116" t="n">
-        <v>2502.5703</v>
+        <v>1329.6032</v>
       </c>
       <c r="G116" t="n">
-        <v>155.2149999999999</v>
+        <v>155.3083333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>152.5</v>
+        <v>152</v>
       </c>
       <c r="C117" t="n">
-        <v>157.8</v>
+        <v>152.4</v>
       </c>
       <c r="D117" t="n">
-        <v>157.8</v>
+        <v>152.4</v>
       </c>
       <c r="E117" t="n">
-        <v>152.5</v>
+        <v>152</v>
       </c>
       <c r="F117" t="n">
-        <v>808.555071356147</v>
+        <v>2502.5703</v>
       </c>
       <c r="G117" t="n">
-        <v>155.2449999999999</v>
+        <v>155.2149999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>153.5</v>
+        <v>152.5</v>
       </c>
       <c r="C118" t="n">
-        <v>153.6</v>
+        <v>157.8</v>
       </c>
       <c r="D118" t="n">
-        <v>153.6</v>
+        <v>157.8</v>
       </c>
       <c r="E118" t="n">
-        <v>153.5</v>
+        <v>152.5</v>
       </c>
       <c r="F118" t="n">
-        <v>2689.2783</v>
+        <v>808.555071356147</v>
       </c>
       <c r="G118" t="n">
-        <v>155.2049999999999</v>
+        <v>155.2449999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>156</v>
+        <v>153.5</v>
       </c>
       <c r="C119" t="n">
-        <v>156.1</v>
+        <v>153.6</v>
       </c>
       <c r="D119" t="n">
-        <v>156.1</v>
+        <v>153.6</v>
       </c>
       <c r="E119" t="n">
-        <v>156</v>
+        <v>153.5</v>
       </c>
       <c r="F119" t="n">
-        <v>2593.99</v>
+        <v>2689.2783</v>
       </c>
       <c r="G119" t="n">
-        <v>155.2233333333332</v>
+        <v>155.2049999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C120" t="n">
-        <v>154.8</v>
+        <v>156.1</v>
       </c>
       <c r="D120" t="n">
-        <v>154.8</v>
+        <v>156.1</v>
       </c>
       <c r="E120" t="n">
-        <v>152.6</v>
+        <v>156</v>
       </c>
       <c r="F120" t="n">
-        <v>2462.6014</v>
+        <v>2593.99</v>
       </c>
       <c r="G120" t="n">
-        <v>155.1466666666666</v>
+        <v>155.2233333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>152.7</v>
+        <v>154</v>
       </c>
       <c r="C121" t="n">
-        <v>152.7</v>
+        <v>154.8</v>
       </c>
       <c r="D121" t="n">
-        <v>152.7</v>
+        <v>154.8</v>
       </c>
       <c r="E121" t="n">
-        <v>152.7</v>
+        <v>152.6</v>
       </c>
       <c r="F121" t="n">
-        <v>2570.7385</v>
+        <v>2462.6014</v>
       </c>
       <c r="G121" t="n">
-        <v>155.0916666666666</v>
+        <v>155.1466666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>154</v>
+        <v>152.7</v>
       </c>
       <c r="C122" t="n">
-        <v>153</v>
+        <v>152.7</v>
       </c>
       <c r="D122" t="n">
-        <v>154</v>
+        <v>152.7</v>
       </c>
       <c r="E122" t="n">
-        <v>153</v>
+        <v>152.7</v>
       </c>
       <c r="F122" t="n">
-        <v>399.6709</v>
+        <v>2570.7385</v>
       </c>
       <c r="G122" t="n">
-        <v>154.9766666666666</v>
+        <v>155.0916666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4671,19 @@
         <v>154</v>
       </c>
       <c r="C123" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D123" t="n">
         <v>154</v>
       </c>
       <c r="E123" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F123" t="n">
-        <v>30</v>
+        <v>399.6709</v>
       </c>
       <c r="G123" t="n">
-        <v>154.8799999999999</v>
+        <v>154.9766666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="C124" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="D124" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="E124" t="n">
-        <v>153.9</v>
+        <v>154</v>
       </c>
       <c r="F124" t="n">
-        <v>6.4558</v>
+        <v>30</v>
       </c>
       <c r="G124" t="n">
-        <v>154.7816666666666</v>
+        <v>154.8799999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>153.1</v>
+        <v>153.9</v>
       </c>
       <c r="C125" t="n">
-        <v>153</v>
+        <v>153.9</v>
       </c>
       <c r="D125" t="n">
-        <v>153.1</v>
+        <v>153.9</v>
       </c>
       <c r="E125" t="n">
-        <v>153</v>
+        <v>153.9</v>
       </c>
       <c r="F125" t="n">
-        <v>4096</v>
+        <v>6.4558</v>
       </c>
       <c r="G125" t="n">
-        <v>154.6733333333333</v>
+        <v>154.7816666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>153</v>
+        <v>153.1</v>
       </c>
       <c r="C126" t="n">
         <v>153</v>
       </c>
       <c r="D126" t="n">
-        <v>153</v>
+        <v>153.1</v>
       </c>
       <c r="E126" t="n">
         <v>153</v>
       </c>
       <c r="F126" t="n">
-        <v>1095</v>
+        <v>4096</v>
       </c>
       <c r="G126" t="n">
-        <v>154.5649999999999</v>
+        <v>154.6733333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>153</v>
       </c>
       <c r="C127" t="n">
-        <v>152.8</v>
+        <v>153</v>
       </c>
       <c r="D127" t="n">
         <v>153</v>
       </c>
       <c r="E127" t="n">
-        <v>152.8</v>
+        <v>153</v>
       </c>
       <c r="F127" t="n">
-        <v>3350</v>
+        <v>1095</v>
       </c>
       <c r="G127" t="n">
-        <v>154.5249999999999</v>
+        <v>154.5649999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>153.9</v>
+        <v>153</v>
       </c>
       <c r="C128" t="n">
-        <v>153.9</v>
+        <v>152.8</v>
       </c>
       <c r="D128" t="n">
-        <v>153.9</v>
+        <v>153</v>
       </c>
       <c r="E128" t="n">
-        <v>153.9</v>
+        <v>152.8</v>
       </c>
       <c r="F128" t="n">
-        <v>8.662699999999999</v>
+        <v>3350</v>
       </c>
       <c r="G128" t="n">
-        <v>154.4566666666666</v>
+        <v>154.5249999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>152.8</v>
+        <v>153.9</v>
       </c>
       <c r="C129" t="n">
-        <v>152.7</v>
+        <v>153.9</v>
       </c>
       <c r="D129" t="n">
-        <v>152.8</v>
+        <v>153.9</v>
       </c>
       <c r="E129" t="n">
-        <v>152.7</v>
+        <v>153.9</v>
       </c>
       <c r="F129" t="n">
-        <v>708.4917</v>
+        <v>8.662699999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>154.3483333333332</v>
+        <v>154.4566666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="C130" t="n">
         <v>152.7</v>
       </c>
-      <c r="C130" t="n">
-        <v>152.5</v>
-      </c>
       <c r="D130" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="E130" t="n">
         <v>152.7</v>
       </c>
-      <c r="E130" t="n">
-        <v>152.5</v>
-      </c>
       <c r="F130" t="n">
-        <v>1170.5733</v>
+        <v>708.4917</v>
       </c>
       <c r="G130" t="n">
-        <v>154.3066666666666</v>
+        <v>154.3483333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>152.5</v>
+        <v>152.7</v>
       </c>
       <c r="C131" t="n">
         <v>152.5</v>
       </c>
       <c r="D131" t="n">
-        <v>152.5</v>
+        <v>152.7</v>
       </c>
       <c r="E131" t="n">
         <v>152.5</v>
       </c>
       <c r="F131" t="n">
-        <v>1614.9096</v>
+        <v>1170.5733</v>
       </c>
       <c r="G131" t="n">
-        <v>154.2166666666666</v>
+        <v>154.3066666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>152.5</v>
       </c>
       <c r="F132" t="n">
-        <v>5.8438</v>
+        <v>1614.9096</v>
       </c>
       <c r="G132" t="n">
-        <v>154.1683333333332</v>
+        <v>154.2166666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>150.9</v>
+        <v>152.5</v>
       </c>
       <c r="C133" t="n">
-        <v>150.2</v>
+        <v>152.5</v>
       </c>
       <c r="D133" t="n">
-        <v>150.9</v>
+        <v>152.5</v>
       </c>
       <c r="E133" t="n">
-        <v>150.2</v>
+        <v>152.5</v>
       </c>
       <c r="F133" t="n">
-        <v>1473.6547</v>
+        <v>5.8438</v>
       </c>
       <c r="G133" t="n">
-        <v>154.0883333333333</v>
+        <v>154.1683333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="C134" t="n">
         <v>150.2</v>
       </c>
-      <c r="C134" t="n">
-        <v>151.9</v>
-      </c>
       <c r="D134" t="n">
-        <v>151.9</v>
+        <v>150.9</v>
       </c>
       <c r="E134" t="n">
         <v>150.2</v>
       </c>
       <c r="F134" t="n">
-        <v>4603.9321</v>
+        <v>1473.6547</v>
       </c>
       <c r="G134" t="n">
-        <v>153.9883333333333</v>
+        <v>154.0883333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>150.1</v>
+        <v>150.2</v>
       </c>
       <c r="C135" t="n">
-        <v>149</v>
+        <v>151.9</v>
       </c>
       <c r="D135" t="n">
-        <v>150.1</v>
+        <v>151.9</v>
       </c>
       <c r="E135" t="n">
-        <v>149</v>
+        <v>150.2</v>
       </c>
       <c r="F135" t="n">
-        <v>2003.1944</v>
+        <v>4603.9321</v>
       </c>
       <c r="G135" t="n">
-        <v>153.9033333333333</v>
+        <v>153.9883333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="C136" t="n">
         <v>149</v>
       </c>
       <c r="D136" t="n">
-        <v>150</v>
+        <v>150.1</v>
       </c>
       <c r="E136" t="n">
         <v>149</v>
       </c>
       <c r="F136" t="n">
-        <v>9479.033100000001</v>
+        <v>2003.1944</v>
       </c>
       <c r="G136" t="n">
-        <v>153.8183333333332</v>
+        <v>153.9033333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>149</v>
       </c>
       <c r="F137" t="n">
-        <v>806.0529</v>
+        <v>9479.033100000001</v>
       </c>
       <c r="G137" t="n">
-        <v>153.7449999999999</v>
+        <v>153.8183333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C138" t="n">
         <v>149</v>
       </c>
       <c r="D138" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E138" t="n">
         <v>149</v>
       </c>
       <c r="F138" t="n">
-        <v>1777.044</v>
+        <v>806.0529</v>
       </c>
       <c r="G138" t="n">
-        <v>153.6849999999999</v>
+        <v>153.7449999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>149</v>
       </c>
       <c r="F139" t="n">
-        <v>18</v>
+        <v>1777.044</v>
       </c>
       <c r="G139" t="n">
-        <v>153.6016666666666</v>
+        <v>153.6849999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D140" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E140" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F140" t="n">
-        <v>3340.9157</v>
+        <v>18</v>
       </c>
       <c r="G140" t="n">
-        <v>153.5183333333333</v>
+        <v>153.6016666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>150</v>
       </c>
       <c r="D141" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E141" t="n">
         <v>150</v>
       </c>
       <c r="F141" t="n">
-        <v>766.7723</v>
+        <v>3340.9157</v>
       </c>
       <c r="G141" t="n">
-        <v>153.4366666666666</v>
+        <v>153.5183333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>150.3</v>
+        <v>150</v>
       </c>
       <c r="C142" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D142" t="n">
-        <v>150.3</v>
+        <v>150</v>
       </c>
       <c r="E142" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F142" t="n">
-        <v>3190.0973</v>
+        <v>766.7723</v>
       </c>
       <c r="G142" t="n">
-        <v>153.3383333333333</v>
+        <v>153.4366666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>150</v>
+        <v>150.3</v>
       </c>
       <c r="C143" t="n">
         <v>149</v>
       </c>
       <c r="D143" t="n">
-        <v>150.8</v>
+        <v>150.3</v>
       </c>
       <c r="E143" t="n">
         <v>149</v>
       </c>
       <c r="F143" t="n">
-        <v>1097.8974</v>
+        <v>3190.0973</v>
       </c>
       <c r="G143" t="n">
-        <v>153.2399999999999</v>
+        <v>153.3383333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C144" t="n">
         <v>149</v>
       </c>
       <c r="D144" t="n">
-        <v>149</v>
+        <v>150.8</v>
       </c>
       <c r="E144" t="n">
         <v>149</v>
       </c>
       <c r="F144" t="n">
-        <v>1000</v>
+        <v>1097.8974</v>
       </c>
       <c r="G144" t="n">
-        <v>153.1416666666666</v>
+        <v>153.2399999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>149</v>
       </c>
       <c r="F145" t="n">
-        <v>1470.5433</v>
+        <v>1000</v>
       </c>
       <c r="G145" t="n">
-        <v>153.0783333333333</v>
+        <v>153.1416666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5476,19 +5476,19 @@
         <v>149</v>
       </c>
       <c r="C146" t="n">
-        <v>148.8</v>
+        <v>149</v>
       </c>
       <c r="D146" t="n">
         <v>149</v>
       </c>
       <c r="E146" t="n">
-        <v>148.8</v>
+        <v>149</v>
       </c>
       <c r="F146" t="n">
-        <v>8487.697399999999</v>
+        <v>1470.5433</v>
       </c>
       <c r="G146" t="n">
-        <v>152.9766666666666</v>
+        <v>153.0783333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>148.7</v>
+        <v>149</v>
       </c>
       <c r="C147" t="n">
-        <v>148.5</v>
+        <v>148.8</v>
       </c>
       <c r="D147" t="n">
-        <v>148.7</v>
+        <v>149</v>
       </c>
       <c r="E147" t="n">
-        <v>148.5</v>
+        <v>148.8</v>
       </c>
       <c r="F147" t="n">
-        <v>3800.2705</v>
+        <v>8487.697399999999</v>
       </c>
       <c r="G147" t="n">
-        <v>152.8516666666666</v>
+        <v>152.9766666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="C148" t="n">
         <v>148.5</v>
       </c>
-      <c r="C148" t="n">
-        <v>148.8</v>
-      </c>
       <c r="D148" t="n">
-        <v>148.8</v>
+        <v>148.7</v>
       </c>
       <c r="E148" t="n">
         <v>148.5</v>
       </c>
       <c r="F148" t="n">
-        <v>10156.7038</v>
+        <v>3800.2705</v>
       </c>
       <c r="G148" t="n">
-        <v>152.7483333333333</v>
+        <v>152.8516666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>148.4</v>
+        <v>148.5</v>
       </c>
       <c r="C149" t="n">
-        <v>148.1</v>
+        <v>148.8</v>
       </c>
       <c r="D149" t="n">
-        <v>148.4</v>
+        <v>148.8</v>
       </c>
       <c r="E149" t="n">
-        <v>148.1</v>
+        <v>148.5</v>
       </c>
       <c r="F149" t="n">
-        <v>729.2309</v>
+        <v>10156.7038</v>
       </c>
       <c r="G149" t="n">
-        <v>152.6333333333333</v>
+        <v>152.7483333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>148.8</v>
+        <v>148.4</v>
       </c>
       <c r="C150" t="n">
-        <v>148.8</v>
+        <v>148.1</v>
       </c>
       <c r="D150" t="n">
-        <v>148.8</v>
+        <v>148.4</v>
       </c>
       <c r="E150" t="n">
-        <v>148.8</v>
+        <v>148.1</v>
       </c>
       <c r="F150" t="n">
-        <v>21</v>
+        <v>729.2309</v>
       </c>
       <c r="G150" t="n">
-        <v>152.5299999999999</v>
+        <v>152.6333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>148.8</v>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G151" t="n">
-        <v>152.4283333333333</v>
+        <v>152.5299999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>148.8</v>
       </c>
       <c r="F152" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G152" t="n">
-        <v>152.3266666666666</v>
+        <v>152.4283333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +5721,19 @@
         <v>148.8</v>
       </c>
       <c r="C153" t="n">
-        <v>150</v>
+        <v>148.8</v>
       </c>
       <c r="D153" t="n">
-        <v>150</v>
+        <v>148.8</v>
       </c>
       <c r="E153" t="n">
         <v>148.8</v>
       </c>
       <c r="F153" t="n">
-        <v>6.672221866666667</v>
+        <v>75</v>
       </c>
       <c r="G153" t="n">
-        <v>152.2266666666666</v>
+        <v>152.3266666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>148.4</v>
+        <v>148.8</v>
       </c>
       <c r="C154" t="n">
-        <v>148.4</v>
+        <v>150</v>
       </c>
       <c r="D154" t="n">
-        <v>148.4</v>
+        <v>150</v>
       </c>
       <c r="E154" t="n">
-        <v>148.4</v>
+        <v>148.8</v>
       </c>
       <c r="F154" t="n">
-        <v>6.6722</v>
+        <v>6.672221866666667</v>
       </c>
       <c r="G154" t="n">
-        <v>152.1183333333333</v>
+        <v>152.2266666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>148.5</v>
+        <v>148.4</v>
       </c>
       <c r="C155" t="n">
         <v>148.4</v>
       </c>
       <c r="D155" t="n">
-        <v>148.5</v>
+        <v>148.4</v>
       </c>
       <c r="E155" t="n">
         <v>148.4</v>
       </c>
       <c r="F155" t="n">
-        <v>2959.3243</v>
+        <v>6.6722</v>
       </c>
       <c r="G155" t="n">
-        <v>151.9749999999999</v>
+        <v>152.1183333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C156" t="n">
         <v>148.4</v>
       </c>
-      <c r="C156" t="n">
-        <v>148.3</v>
-      </c>
       <c r="D156" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E156" t="n">
         <v>148.4</v>
       </c>
-      <c r="E156" t="n">
-        <v>148.3</v>
-      </c>
       <c r="F156" t="n">
-        <v>1545.3735</v>
+        <v>2959.3243</v>
       </c>
       <c r="G156" t="n">
-        <v>151.8299999999999</v>
+        <v>151.9749999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +5861,19 @@
         <v>148.4</v>
       </c>
       <c r="C157" t="n">
-        <v>150.8</v>
+        <v>148.3</v>
       </c>
       <c r="D157" t="n">
-        <v>150.8</v>
+        <v>148.4</v>
       </c>
       <c r="E157" t="n">
-        <v>148.4</v>
+        <v>148.3</v>
       </c>
       <c r="F157" t="n">
-        <v>8448.900799999999</v>
+        <v>1545.3735</v>
       </c>
       <c r="G157" t="n">
-        <v>151.7616666666666</v>
+        <v>151.8299999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>150</v>
+        <v>148.4</v>
       </c>
       <c r="C158" t="n">
-        <v>150</v>
+        <v>150.8</v>
       </c>
       <c r="D158" t="n">
-        <v>150</v>
+        <v>150.8</v>
       </c>
       <c r="E158" t="n">
-        <v>150</v>
+        <v>148.4</v>
       </c>
       <c r="F158" t="n">
-        <v>10.7434</v>
+        <v>8448.900799999999</v>
       </c>
       <c r="G158" t="n">
-        <v>151.6799999999999</v>
+        <v>151.7616666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>151.9</v>
+        <v>150</v>
       </c>
       <c r="C159" t="n">
-        <v>151.9</v>
+        <v>150</v>
       </c>
       <c r="D159" t="n">
-        <v>151.9</v>
+        <v>150</v>
       </c>
       <c r="E159" t="n">
-        <v>151.9</v>
+        <v>150</v>
       </c>
       <c r="F159" t="n">
-        <v>10.5561</v>
+        <v>10.7434</v>
       </c>
       <c r="G159" t="n">
-        <v>151.5949999999999</v>
+        <v>151.6799999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>151</v>
+        <v>151.9</v>
       </c>
       <c r="C160" t="n">
-        <v>151</v>
+        <v>151.9</v>
       </c>
       <c r="D160" t="n">
-        <v>151</v>
+        <v>151.9</v>
       </c>
       <c r="E160" t="n">
-        <v>151</v>
+        <v>151.9</v>
       </c>
       <c r="F160" t="n">
-        <v>66.66670000000001</v>
+        <v>10.5561</v>
       </c>
       <c r="G160" t="n">
-        <v>151.5449999999999</v>
+        <v>151.5949999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C161" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D161" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E161" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F161" t="n">
-        <v>174.74</v>
+        <v>66.66670000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>151.4833333333332</v>
+        <v>151.5449999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>150.6</v>
+        <v>152</v>
       </c>
       <c r="C162" t="n">
-        <v>151.8</v>
+        <v>152</v>
       </c>
       <c r="D162" t="n">
-        <v>151.8</v>
+        <v>152</v>
       </c>
       <c r="E162" t="n">
-        <v>150.6</v>
+        <v>152</v>
       </c>
       <c r="F162" t="n">
-        <v>2762.968845849802</v>
+        <v>174.74</v>
       </c>
       <c r="G162" t="n">
-        <v>151.4516666666665</v>
+        <v>151.4833333333332</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6071,19 +6071,19 @@
         <v>150.6</v>
       </c>
       <c r="C163" t="n">
-        <v>150.6</v>
+        <v>151.8</v>
       </c>
       <c r="D163" t="n">
-        <v>150.6</v>
+        <v>151.8</v>
       </c>
       <c r="E163" t="n">
         <v>150.6</v>
       </c>
       <c r="F163" t="n">
-        <v>1800</v>
+        <v>2762.968845849802</v>
       </c>
       <c r="G163" t="n">
-        <v>151.3983333333332</v>
+        <v>151.4516666666665</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>150.6</v>
       </c>
       <c r="F164" t="n">
-        <v>301</v>
+        <v>1800</v>
       </c>
       <c r="G164" t="n">
-        <v>151.3433333333332</v>
+        <v>151.3983333333332</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6141,19 +6141,19 @@
         <v>150.6</v>
       </c>
       <c r="C165" t="n">
-        <v>150</v>
+        <v>150.6</v>
       </c>
       <c r="D165" t="n">
         <v>150.6</v>
       </c>
       <c r="E165" t="n">
-        <v>150</v>
+        <v>150.6</v>
       </c>
       <c r="F165" t="n">
-        <v>81.92</v>
+        <v>301</v>
       </c>
       <c r="G165" t="n">
-        <v>151.2783333333332</v>
+        <v>151.3433333333332</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>149.7</v>
+        <v>150.6</v>
       </c>
       <c r="C166" t="n">
-        <v>149.2</v>
+        <v>150</v>
       </c>
       <c r="D166" t="n">
-        <v>149.7</v>
+        <v>150.6</v>
       </c>
       <c r="E166" t="n">
-        <v>149.2</v>
+        <v>150</v>
       </c>
       <c r="F166" t="n">
-        <v>17598.297</v>
+        <v>81.92</v>
       </c>
       <c r="G166" t="n">
-        <v>151.2016666666666</v>
+        <v>151.2783333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>149</v>
+        <v>149.7</v>
       </c>
       <c r="C167" t="n">
-        <v>149</v>
+        <v>149.2</v>
       </c>
       <c r="D167" t="n">
-        <v>149</v>
+        <v>149.7</v>
       </c>
       <c r="E167" t="n">
-        <v>149</v>
+        <v>149.2</v>
       </c>
       <c r="F167" t="n">
-        <v>145</v>
+        <v>17598.297</v>
       </c>
       <c r="G167" t="n">
-        <v>151.1216666666666</v>
+        <v>151.2016666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6255,10 @@
         <v>149</v>
       </c>
       <c r="F168" t="n">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="G168" t="n">
-        <v>151.0716666666666</v>
+        <v>151.1216666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="C169" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="D169" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="E169" t="n">
-        <v>148.4</v>
+        <v>149</v>
       </c>
       <c r="F169" t="n">
-        <v>179.2735</v>
+        <v>62</v>
       </c>
       <c r="G169" t="n">
-        <v>151.0116666666666</v>
+        <v>151.0716666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>149</v>
+        <v>148.4</v>
       </c>
       <c r="C170" t="n">
-        <v>149</v>
+        <v>148.4</v>
       </c>
       <c r="D170" t="n">
-        <v>149</v>
+        <v>148.4</v>
       </c>
       <c r="E170" t="n">
-        <v>149</v>
+        <v>148.4</v>
       </c>
       <c r="F170" t="n">
-        <v>64</v>
+        <v>179.2735</v>
       </c>
       <c r="G170" t="n">
-        <v>150.9316666666666</v>
+        <v>151.0116666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C171" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D171" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E171" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F171" t="n">
-        <v>1000</v>
+        <v>64</v>
       </c>
       <c r="G171" t="n">
-        <v>150.8683333333333</v>
+        <v>150.9316666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>150.7</v>
+        <v>150</v>
       </c>
       <c r="C172" t="n">
-        <v>150.7</v>
+        <v>150</v>
       </c>
       <c r="D172" t="n">
-        <v>150.7</v>
+        <v>150</v>
       </c>
       <c r="E172" t="n">
-        <v>150.7</v>
+        <v>150</v>
       </c>
       <c r="F172" t="n">
-        <v>1023.3069</v>
+        <v>1000</v>
       </c>
       <c r="G172" t="n">
-        <v>150.8466666666666</v>
+        <v>150.8683333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>148.4</v>
+        <v>150.7</v>
       </c>
       <c r="C173" t="n">
-        <v>146.1</v>
+        <v>150.7</v>
       </c>
       <c r="D173" t="n">
-        <v>148.4</v>
+        <v>150.7</v>
       </c>
       <c r="E173" t="n">
-        <v>146.1</v>
+        <v>150.7</v>
       </c>
       <c r="F173" t="n">
-        <v>1385.8405</v>
+        <v>1023.3069</v>
       </c>
       <c r="G173" t="n">
-        <v>150.7316666666666</v>
+        <v>150.8466666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>146.1</v>
+        <v>148.4</v>
       </c>
       <c r="C174" t="n">
         <v>146.1</v>
       </c>
       <c r="D174" t="n">
-        <v>146.1</v>
+        <v>148.4</v>
       </c>
       <c r="E174" t="n">
         <v>146.1</v>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>1385.8405</v>
       </c>
       <c r="G174" t="n">
-        <v>150.6433333333333</v>
+        <v>150.7316666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,19 +6491,19 @@
         <v>146.1</v>
       </c>
       <c r="C175" t="n">
-        <v>145</v>
+        <v>146.1</v>
       </c>
       <c r="D175" t="n">
         <v>146.1</v>
       </c>
       <c r="E175" t="n">
-        <v>145</v>
+        <v>146.1</v>
       </c>
       <c r="F175" t="n">
-        <v>9633.012199999999</v>
+        <v>200</v>
       </c>
       <c r="G175" t="n">
-        <v>150.52</v>
+        <v>150.6433333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>143.9</v>
+        <v>146.1</v>
       </c>
       <c r="C176" t="n">
-        <v>143.9</v>
+        <v>145</v>
       </c>
       <c r="D176" t="n">
-        <v>143.9</v>
+        <v>146.1</v>
       </c>
       <c r="E176" t="n">
-        <v>143.9</v>
+        <v>145</v>
       </c>
       <c r="F176" t="n">
-        <v>800</v>
+        <v>9633.012199999999</v>
       </c>
       <c r="G176" t="n">
-        <v>150.3783333333333</v>
+        <v>150.52</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
         <v>143.9</v>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G177" t="n">
-        <v>150.1466666666666</v>
+        <v>150.3783333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>143</v>
+        <v>143.9</v>
       </c>
       <c r="C178" t="n">
         <v>143.9</v>
@@ -6602,13 +6602,13 @@
         <v>143.9</v>
       </c>
       <c r="E178" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="F178" t="n">
-        <v>5979.6534</v>
+        <v>200</v>
       </c>
       <c r="G178" t="n">
-        <v>149.985</v>
+        <v>150.1466666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="C179" t="n">
-        <v>142.7</v>
+        <v>143.9</v>
       </c>
       <c r="D179" t="n">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="E179" t="n">
-        <v>142.7</v>
+        <v>141</v>
       </c>
       <c r="F179" t="n">
-        <v>2560.9681</v>
+        <v>5979.6534</v>
       </c>
       <c r="G179" t="n">
-        <v>149.7616666666667</v>
+        <v>149.985</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="C180" t="n">
         <v>142.7</v>
       </c>
-      <c r="C180" t="n">
-        <v>142.6</v>
-      </c>
       <c r="D180" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="E180" t="n">
         <v>142.7</v>
       </c>
-      <c r="E180" t="n">
-        <v>142.6</v>
-      </c>
       <c r="F180" t="n">
-        <v>1595.3323</v>
+        <v>2560.9681</v>
       </c>
       <c r="G180" t="n">
-        <v>149.5583333333333</v>
+        <v>149.7616666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,19 +6701,19 @@
         <v>142.7</v>
       </c>
       <c r="C181" t="n">
-        <v>142.7</v>
+        <v>142.6</v>
       </c>
       <c r="D181" t="n">
         <v>142.7</v>
       </c>
       <c r="E181" t="n">
-        <v>142.7</v>
+        <v>142.6</v>
       </c>
       <c r="F181" t="n">
-        <v>250.075</v>
+        <v>1595.3323</v>
       </c>
       <c r="G181" t="n">
-        <v>149.3916666666667</v>
+        <v>149.5583333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>142</v>
+        <v>142.7</v>
       </c>
       <c r="C182" t="n">
-        <v>141.9</v>
+        <v>142.7</v>
       </c>
       <c r="D182" t="n">
-        <v>143</v>
+        <v>142.7</v>
       </c>
       <c r="E182" t="n">
-        <v>141</v>
+        <v>142.7</v>
       </c>
       <c r="F182" t="n">
-        <v>23869.74</v>
+        <v>250.075</v>
       </c>
       <c r="G182" t="n">
-        <v>149.2066666666666</v>
+        <v>149.3916666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,10 +6768,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C183" t="n">
-        <v>143</v>
+        <v>141.9</v>
       </c>
       <c r="D183" t="n">
         <v>143</v>
@@ -6780,10 +6780,10 @@
         <v>141</v>
       </c>
       <c r="F183" t="n">
-        <v>8272.4095</v>
+        <v>23869.74</v>
       </c>
       <c r="G183" t="n">
-        <v>149.0233333333333</v>
+        <v>149.2066666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>141</v>
+      </c>
+      <c r="C184" t="n">
         <v>143</v>
       </c>
-      <c r="C184" t="n">
-        <v>143.5</v>
-      </c>
       <c r="D184" t="n">
-        <v>143.5</v>
+        <v>143</v>
       </c>
       <c r="E184" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F184" t="n">
-        <v>382.4778</v>
+        <v>8272.4095</v>
       </c>
       <c r="G184" t="n">
-        <v>148.85</v>
+        <v>149.0233333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>141.1</v>
+        <v>143</v>
       </c>
       <c r="C185" t="n">
-        <v>142.3</v>
+        <v>143.5</v>
       </c>
       <c r="D185" t="n">
-        <v>142.3</v>
+        <v>143.5</v>
       </c>
       <c r="E185" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F185" t="n">
-        <v>1758.5781</v>
+        <v>382.4778</v>
       </c>
       <c r="G185" t="n">
-        <v>148.6716666666667</v>
+        <v>148.85</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6876,19 +6876,19 @@
         <v>141.1</v>
       </c>
       <c r="C186" t="n">
-        <v>141.1</v>
+        <v>142.3</v>
       </c>
       <c r="D186" t="n">
-        <v>141.1</v>
+        <v>142.3</v>
       </c>
       <c r="E186" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="F186" t="n">
-        <v>294.731</v>
+        <v>1758.5781</v>
       </c>
       <c r="G186" t="n">
-        <v>148.4733333333333</v>
+        <v>148.6716666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>146.6</v>
+        <v>141.1</v>
       </c>
       <c r="C187" t="n">
-        <v>146.6</v>
+        <v>141.1</v>
       </c>
       <c r="D187" t="n">
-        <v>146.6</v>
+        <v>141.1</v>
       </c>
       <c r="E187" t="n">
-        <v>146.6</v>
+        <v>141.1</v>
       </c>
       <c r="F187" t="n">
-        <v>132.2576</v>
+        <v>294.731</v>
       </c>
       <c r="G187" t="n">
-        <v>148.37</v>
+        <v>148.4733333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,38 +6943,32 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>142.2</v>
+        <v>146.6</v>
       </c>
       <c r="C188" t="n">
-        <v>140.1</v>
+        <v>146.6</v>
       </c>
       <c r="D188" t="n">
-        <v>144.3</v>
+        <v>146.6</v>
       </c>
       <c r="E188" t="n">
-        <v>140.1</v>
+        <v>146.6</v>
       </c>
       <c r="F188" t="n">
-        <v>6911.5824</v>
+        <v>132.2576</v>
       </c>
       <c r="G188" t="n">
-        <v>148.14</v>
+        <v>148.37</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>146.6</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6984,38 +6978,32 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>146.6</v>
+        <v>142.2</v>
       </c>
       <c r="C189" t="n">
-        <v>144</v>
+        <v>140.1</v>
       </c>
       <c r="D189" t="n">
-        <v>148.9</v>
+        <v>144.3</v>
       </c>
       <c r="E189" t="n">
-        <v>141.2</v>
+        <v>140.1</v>
       </c>
       <c r="F189" t="n">
-        <v>2029.5626</v>
+        <v>6911.5824</v>
       </c>
       <c r="G189" t="n">
-        <v>147.995</v>
+        <v>148.14</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>140.1</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7025,38 +7013,32 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>144.5</v>
+        <v>146.6</v>
       </c>
       <c r="C190" t="n">
-        <v>141.1</v>
+        <v>144</v>
       </c>
       <c r="D190" t="n">
-        <v>149</v>
+        <v>148.9</v>
       </c>
       <c r="E190" t="n">
-        <v>141.1</v>
+        <v>141.2</v>
       </c>
       <c r="F190" t="n">
-        <v>1140.0289</v>
+        <v>2029.5626</v>
       </c>
       <c r="G190" t="n">
-        <v>147.805</v>
+        <v>147.995</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>144</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7066,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>148</v>
+        <v>144.5</v>
       </c>
       <c r="C191" t="n">
-        <v>148</v>
+        <v>141.1</v>
       </c>
       <c r="D191" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E191" t="n">
-        <v>148</v>
+        <v>141.1</v>
       </c>
       <c r="F191" t="n">
-        <v>158.9454</v>
+        <v>1140.0289</v>
       </c>
       <c r="G191" t="n">
-        <v>147.73</v>
+        <v>147.805</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7091,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7105,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C192" t="n">
-        <v>141.5</v>
+        <v>148</v>
       </c>
       <c r="D192" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E192" t="n">
-        <v>141.5</v>
+        <v>148</v>
       </c>
       <c r="F192" t="n">
-        <v>11841.8165</v>
+        <v>158.9454</v>
       </c>
       <c r="G192" t="n">
-        <v>147.5466666666667</v>
+        <v>147.73</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7144,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C193" t="n">
-        <v>144</v>
+        <v>141.5</v>
       </c>
       <c r="D193" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E193" t="n">
-        <v>144</v>
+        <v>141.5</v>
       </c>
       <c r="F193" t="n">
-        <v>236</v>
+        <v>11841.8165</v>
       </c>
       <c r="G193" t="n">
-        <v>147.4433333333333</v>
+        <v>147.5466666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7169,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7183,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C194" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D194" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E194" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F194" t="n">
-        <v>104.79</v>
+        <v>236</v>
       </c>
       <c r="G194" t="n">
-        <v>147.295</v>
+        <v>147.4433333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7208,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7222,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>141.6</v>
+        <v>147</v>
       </c>
       <c r="C195" t="n">
-        <v>141.6</v>
+        <v>143</v>
       </c>
       <c r="D195" t="n">
-        <v>141.6</v>
+        <v>147</v>
       </c>
       <c r="E195" t="n">
-        <v>141.6</v>
+        <v>143</v>
       </c>
       <c r="F195" t="n">
-        <v>263</v>
+        <v>104.79</v>
       </c>
       <c r="G195" t="n">
-        <v>147.1716666666667</v>
+        <v>147.295</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7247,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7261,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>143</v>
+        <v>141.6</v>
       </c>
       <c r="C196" t="n">
         <v>141.6</v>
       </c>
       <c r="D196" t="n">
-        <v>143</v>
+        <v>141.6</v>
       </c>
       <c r="E196" t="n">
         <v>141.6</v>
       </c>
       <c r="F196" t="n">
-        <v>2186.2503</v>
+        <v>263</v>
       </c>
       <c r="G196" t="n">
-        <v>147.0483333333333</v>
+        <v>147.1716666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7286,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7300,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>141.5</v>
+        <v>143</v>
       </c>
       <c r="C197" t="n">
-        <v>141.1</v>
+        <v>141.6</v>
       </c>
       <c r="D197" t="n">
-        <v>141.5</v>
+        <v>143</v>
       </c>
       <c r="E197" t="n">
-        <v>141.1</v>
+        <v>141.6</v>
       </c>
       <c r="F197" t="n">
-        <v>5700.0508</v>
+        <v>2186.2503</v>
       </c>
       <c r="G197" t="n">
-        <v>146.9166666666667</v>
+        <v>147.0483333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7325,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7339,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>141.2</v>
+        <v>141.5</v>
       </c>
       <c r="C198" t="n">
         <v>141.1</v>
       </c>
       <c r="D198" t="n">
-        <v>141.2</v>
+        <v>141.5</v>
       </c>
       <c r="E198" t="n">
         <v>141.1</v>
       </c>
       <c r="F198" t="n">
-        <v>6104.5824</v>
+        <v>5700.0508</v>
       </c>
       <c r="G198" t="n">
-        <v>146.785</v>
+        <v>146.9166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7364,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7378,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>142</v>
+        <v>141.2</v>
       </c>
       <c r="C199" t="n">
-        <v>147.6</v>
+        <v>141.1</v>
       </c>
       <c r="D199" t="n">
-        <v>150.8</v>
+        <v>141.2</v>
       </c>
       <c r="E199" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="F199" t="n">
-        <v>1270</v>
+        <v>6104.5824</v>
       </c>
       <c r="G199" t="n">
-        <v>146.7616666666667</v>
+        <v>146.785</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7403,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7417,36 +7363,36 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C200" t="n">
-        <v>146</v>
+        <v>147.6</v>
       </c>
       <c r="D200" t="n">
-        <v>146</v>
+        <v>150.8</v>
       </c>
       <c r="E200" t="n">
-        <v>142.2</v>
+        <v>142</v>
       </c>
       <c r="F200" t="n">
-        <v>684.9457</v>
+        <v>1270</v>
       </c>
       <c r="G200" t="n">
-        <v>146.6950000000001</v>
+        <v>146.7616666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7456,22 +7402,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C201" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D201" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E201" t="n">
-        <v>144</v>
+        <v>142.2</v>
       </c>
       <c r="F201" t="n">
-        <v>213.2195</v>
+        <v>684.9457</v>
       </c>
       <c r="G201" t="n">
-        <v>146.5950000000001</v>
+        <v>146.6950000000001</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7480,10 +7426,12 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>141.1</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -7495,22 +7443,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>145</v>
+      </c>
+      <c r="C202" t="n">
         <v>144</v>
       </c>
-      <c r="C202" t="n">
-        <v>142.3</v>
-      </c>
       <c r="D202" t="n">
+        <v>145</v>
+      </c>
+      <c r="E202" t="n">
         <v>144</v>
       </c>
-      <c r="E202" t="n">
-        <v>141.3</v>
-      </c>
       <c r="F202" t="n">
-        <v>400</v>
+        <v>213.2195</v>
       </c>
       <c r="G202" t="n">
-        <v>146.4833333333334</v>
+        <v>146.5950000000001</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7519,10 +7467,12 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>141.1</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M202" t="n">
@@ -7534,22 +7484,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>142.1</v>
+        <v>144</v>
       </c>
       <c r="C203" t="n">
-        <v>142.1</v>
+        <v>142.3</v>
       </c>
       <c r="D203" t="n">
-        <v>142.1</v>
+        <v>144</v>
       </c>
       <c r="E203" t="n">
-        <v>142.1</v>
+        <v>141.3</v>
       </c>
       <c r="F203" t="n">
-        <v>97.2122</v>
+        <v>400</v>
       </c>
       <c r="G203" t="n">
-        <v>146.3683333333334</v>
+        <v>146.4833333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7559,11 +7509,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7573,22 +7519,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>143</v>
+        <v>142.1</v>
       </c>
       <c r="C204" t="n">
-        <v>140.5</v>
+        <v>142.1</v>
       </c>
       <c r="D204" t="n">
-        <v>143</v>
+        <v>142.1</v>
       </c>
       <c r="E204" t="n">
-        <v>140.5</v>
+        <v>142.1</v>
       </c>
       <c r="F204" t="n">
-        <v>325</v>
+        <v>97.2122</v>
       </c>
       <c r="G204" t="n">
-        <v>146.2266666666667</v>
+        <v>146.3683333333334</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7598,11 +7544,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7612,22 +7554,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C205" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="D205" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E205" t="n">
-        <v>142</v>
+        <v>140.5</v>
       </c>
       <c r="F205" t="n">
-        <v>80.45999999999999</v>
+        <v>325</v>
       </c>
       <c r="G205" t="n">
-        <v>146.11</v>
+        <v>146.2266666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7637,11 +7579,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7651,38 +7589,32 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>140.4</v>
+        <v>142</v>
       </c>
       <c r="C206" t="n">
-        <v>140.4</v>
+        <v>142</v>
       </c>
       <c r="D206" t="n">
-        <v>140.4</v>
+        <v>142</v>
       </c>
       <c r="E206" t="n">
-        <v>140.4</v>
+        <v>142</v>
       </c>
       <c r="F206" t="n">
-        <v>70.81999999999999</v>
+        <v>80.45999999999999</v>
       </c>
       <c r="G206" t="n">
-        <v>145.9700000000001</v>
+        <v>146.11</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>142</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7704,10 +7636,10 @@
         <v>140.4</v>
       </c>
       <c r="F207" t="n">
-        <v>63.9838</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="G207" t="n">
-        <v>145.835</v>
+        <v>145.9700000000001</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
@@ -7716,14 +7648,12 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="K207" t="n">
+        <v>142</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7733,22 +7663,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>141.9</v>
+        <v>140.4</v>
       </c>
       <c r="C208" t="n">
-        <v>141.9</v>
+        <v>140.4</v>
       </c>
       <c r="D208" t="n">
-        <v>141.9</v>
+        <v>140.4</v>
       </c>
       <c r="E208" t="n">
-        <v>141.9</v>
+        <v>140.4</v>
       </c>
       <c r="F208" t="n">
-        <v>279.2179</v>
+        <v>63.9838</v>
       </c>
       <c r="G208" t="n">
-        <v>145.7200000000001</v>
+        <v>145.835</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7757,10 +7687,12 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>142</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -7772,22 +7704,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>140.4</v>
+        <v>141.9</v>
       </c>
       <c r="C209" t="n">
-        <v>140</v>
+        <v>141.9</v>
       </c>
       <c r="D209" t="n">
-        <v>140.4</v>
+        <v>141.9</v>
       </c>
       <c r="E209" t="n">
-        <v>140</v>
+        <v>141.9</v>
       </c>
       <c r="F209" t="n">
-        <v>231.9772</v>
+        <v>279.2179</v>
       </c>
       <c r="G209" t="n">
-        <v>145.585</v>
+        <v>145.7200000000001</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7796,13 +7728,50 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>142</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="C210" t="n">
+        <v>140</v>
+      </c>
+      <c r="D210" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="E210" t="n">
+        <v>140</v>
+      </c>
+      <c r="F210" t="n">
+        <v>231.9772</v>
+      </c>
+      <c r="G210" t="n">
+        <v>145.585</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest RDN.xlsx
+++ b/BackTest/2020-01-20 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:N220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>11386.4426</v>
       </c>
       <c r="G2" t="n">
+        <v>154.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>151.535</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>19925.0408</v>
       </c>
       <c r="G3" t="n">
+        <v>155.7733333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>151.725</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>8860.894200000001</v>
       </c>
       <c r="G4" t="n">
+        <v>156.3266666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>151.9133333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>49.1567</v>
       </c>
       <c r="G5" t="n">
+        <v>156.7266666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>152.0316666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>21.6377</v>
       </c>
       <c r="G6" t="n">
+        <v>157.1866666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>152.0666666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>16388.7266</v>
       </c>
       <c r="G7" t="n">
+        <v>157.3933333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>152.0866666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3831.3632</v>
       </c>
       <c r="G8" t="n">
+        <v>157.5066666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>152.1066666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>50</v>
       </c>
       <c r="G9" t="n">
+        <v>157.26</v>
+      </c>
+      <c r="H9" t="n">
         <v>152.1416666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>43.2002</v>
       </c>
       <c r="G10" t="n">
+        <v>156.8933333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>152.1766666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>249.5329</v>
       </c>
       <c r="G11" t="n">
+        <v>156.6266666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>152.2116666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>742.1282051282051</v>
       </c>
       <c r="G12" t="n">
+        <v>156.68</v>
+      </c>
+      <c r="H12" t="n">
         <v>152.2616666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1080.0445</v>
       </c>
       <c r="G13" t="n">
+        <v>156.5666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>152.3616666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>4815.1625</v>
       </c>
       <c r="G14" t="n">
+        <v>156.3066666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>152.4783333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>4063.9836</v>
       </c>
       <c r="G15" t="n">
+        <v>156.3066666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>152.5933333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
+        <v>156.3066666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>152.6133333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1667.2062</v>
       </c>
       <c r="G17" t="n">
+        <v>155.9066666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>152.5816666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>497.2852</v>
       </c>
       <c r="G18" t="n">
+        <v>155.3333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>152.6</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>138.1</v>
       </c>
       <c r="G19" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H19" t="n">
         <v>152.5533333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>292.8158</v>
       </c>
       <c r="G20" t="n">
+        <v>154.48</v>
+      </c>
+      <c r="H20" t="n">
         <v>152.4933333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>3693.4907</v>
       </c>
       <c r="G21" t="n">
+        <v>154.02</v>
+      </c>
+      <c r="H21" t="n">
         <v>152.3983333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2516.7433</v>
       </c>
       <c r="G22" t="n">
+        <v>153.8066666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>152.4633333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>343</v>
       </c>
       <c r="G23" t="n">
+        <v>153.6533333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>152.5616666666668</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>893.9999</v>
       </c>
       <c r="G24" t="n">
+        <v>153.4400000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>152.6533333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>181.5329</v>
       </c>
       <c r="G25" t="n">
+        <v>153.5733333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>152.8500000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>32</v>
       </c>
       <c r="G26" t="n">
+        <v>153.6866666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>152.9950000000001</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>4</v>
       </c>
       <c r="G27" t="n">
+        <v>153.3333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>153.0383333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>4</v>
       </c>
       <c r="G28" t="n">
+        <v>153</v>
+      </c>
+      <c r="H28" t="n">
         <v>153.1066666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>4093.8458</v>
       </c>
       <c r="G29" t="n">
+        <v>152.74</v>
+      </c>
+      <c r="H29" t="n">
         <v>153.1700000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>4106.624</v>
       </c>
       <c r="G30" t="n">
+        <v>152.4333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>153.1316666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1723.123</v>
       </c>
       <c r="G31" t="n">
+        <v>152.1266666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>153.1233333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>2486.0817</v>
       </c>
       <c r="G32" t="n">
+        <v>152.02</v>
+      </c>
+      <c r="H32" t="n">
         <v>153.0666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>619.1857</v>
       </c>
       <c r="G33" t="n">
+        <v>152.0066666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>153.1033333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3430.4252</v>
       </c>
       <c r="G34" t="n">
+        <v>151.9466666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>153.0733333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>7076.9044</v>
       </c>
       <c r="G35" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="H35" t="n">
         <v>153.1933333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>4467.9791</v>
       </c>
       <c r="G36" t="n">
+        <v>152.6066666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>153.2150000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1137.3115</v>
       </c>
       <c r="G37" t="n">
+        <v>153.0066666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>153.3450000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1500.3027</v>
       </c>
       <c r="G38" t="n">
+        <v>153.02</v>
+      </c>
+      <c r="H38" t="n">
         <v>153.4316666666668</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>998</v>
       </c>
       <c r="G39" t="n">
+        <v>153.1733333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>153.5716666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2797.2648</v>
       </c>
       <c r="G40" t="n">
+        <v>152.98</v>
+      </c>
+      <c r="H40" t="n">
         <v>153.6800000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1644.3061</v>
       </c>
       <c r="G41" t="n">
+        <v>152.8066666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>153.7866666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>6561.4024</v>
       </c>
       <c r="G42" t="n">
+        <v>153.16</v>
+      </c>
+      <c r="H42" t="n">
         <v>153.9033333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1121.6</v>
       </c>
       <c r="G43" t="n">
+        <v>153.54</v>
+      </c>
+      <c r="H43" t="n">
         <v>154.0066666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>68.24868553459119</v>
       </c>
       <c r="G44" t="n">
+        <v>154.06</v>
+      </c>
+      <c r="H44" t="n">
         <v>154.1900000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2333.4998</v>
       </c>
       <c r="G45" t="n">
+        <v>154.4333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>154.3233333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>10113.12881446541</v>
       </c>
       <c r="G46" t="n">
+        <v>155.0733333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>154.5233333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>8419.236500000001</v>
       </c>
       <c r="G47" t="n">
+        <v>155.52</v>
+      </c>
+      <c r="H47" t="n">
         <v>154.5950000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>23043.1357</v>
       </c>
       <c r="G48" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="H48" t="n">
         <v>154.8033333333335</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>3097.178</v>
       </c>
       <c r="G49" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="H49" t="n">
         <v>154.8933333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1434.3299</v>
       </c>
       <c r="G50" t="n">
+        <v>156.6266666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>155.0583333333335</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>3840.77</v>
       </c>
       <c r="G51" t="n">
+        <v>157.02</v>
+      </c>
+      <c r="H51" t="n">
         <v>155.2083333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1050.7471</v>
       </c>
       <c r="G52" t="n">
+        <v>157.0333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>155.3100000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>2177.266</v>
       </c>
       <c r="G53" t="n">
+        <v>157.3066666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>155.3716666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>4490.6404</v>
       </c>
       <c r="G54" t="n">
+        <v>157.44</v>
+      </c>
+      <c r="H54" t="n">
         <v>155.3283333333335</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>2825.7379</v>
       </c>
       <c r="G55" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="H55" t="n">
         <v>155.2116666666668</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>25089.0835</v>
       </c>
       <c r="G56" t="n">
+        <v>157.3533333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>155.1183333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>14954.8378</v>
       </c>
       <c r="G57" t="n">
+        <v>157.4866666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>155.1650000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>6797.0217</v>
       </c>
       <c r="G58" t="n">
+        <v>157.4866666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>155.1483333333335</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>15</v>
       </c>
       <c r="G59" t="n">
+        <v>157.2866666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>155.0983333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>260.6116</v>
       </c>
       <c r="G60" t="n">
+        <v>157.22</v>
+      </c>
+      <c r="H60" t="n">
         <v>155.0983333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>19.574</v>
       </c>
       <c r="G61" t="n">
+        <v>157.18</v>
+      </c>
+      <c r="H61" t="n">
         <v>155.1716666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>136.89</v>
       </c>
       <c r="G62" t="n">
+        <v>157.1066666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>155.1383333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1066.63743352095</v>
       </c>
       <c r="G63" t="n">
+        <v>157.1066666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>155.1366666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>5496.6806</v>
       </c>
       <c r="G64" t="n">
+        <v>157.2866666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>155.1333333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>809.4502</v>
       </c>
       <c r="G65" t="n">
+        <v>157.2800000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>155.1966666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>193.3674</v>
       </c>
       <c r="G66" t="n">
+        <v>157.3733333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>155.2550000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>398.7197</v>
       </c>
       <c r="G67" t="n">
+        <v>157.4666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>155.3283333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>400</v>
       </c>
       <c r="G68" t="n">
+        <v>157.3400000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>155.3300000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>1189.7142</v>
       </c>
       <c r="G69" t="n">
+        <v>157.4000000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>155.3633333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>3438.0972</v>
       </c>
       <c r="G70" t="n">
+        <v>157.7133333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>155.4166666666668</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>547.0273999999999</v>
       </c>
       <c r="G71" t="n">
+        <v>157.7533333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>155.4000000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>144.272</v>
       </c>
       <c r="G72" t="n">
+        <v>157.7466666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>155.4316666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>6921.9281</v>
       </c>
       <c r="G73" t="n">
+        <v>157.7066666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>155.4333333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>477.635</v>
       </c>
       <c r="G74" t="n">
+        <v>157.64</v>
+      </c>
+      <c r="H74" t="n">
         <v>155.4316666666668</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>2186.6142</v>
       </c>
       <c r="G75" t="n">
+        <v>157.8333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>155.4800000000001</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>3943.4699</v>
       </c>
       <c r="G76" t="n">
+        <v>157.48</v>
+      </c>
+      <c r="H76" t="n">
         <v>155.4650000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>2169.5671</v>
       </c>
       <c r="G77" t="n">
+        <v>157.3533333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>155.5000000000001</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1345.6433</v>
       </c>
       <c r="G78" t="n">
+        <v>156.92</v>
+      </c>
+      <c r="H78" t="n">
         <v>155.5333333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>694.3054</v>
       </c>
       <c r="G79" t="n">
+        <v>156.44</v>
+      </c>
+      <c r="H79" t="n">
         <v>155.5433333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>73</v>
       </c>
       <c r="G80" t="n">
+        <v>156.0533333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>155.5900000000001</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>18</v>
       </c>
       <c r="G81" t="n">
+        <v>155.7533333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>155.6883333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>4</v>
       </c>
       <c r="G82" t="n">
+        <v>155.4466666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>155.7383333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>2378.425</v>
       </c>
       <c r="G83" t="n">
+        <v>155.4266666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>155.7733333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>1123</v>
       </c>
       <c r="G84" t="n">
+        <v>155.2200000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>155.8083333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>551.2298</v>
       </c>
       <c r="G85" t="n">
+        <v>154.9333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>155.7566666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>758.0779</v>
       </c>
       <c r="G86" t="n">
+        <v>154.7866666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>155.6750000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>3223.3373</v>
       </c>
       <c r="G87" t="n">
+        <v>154.5866666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>155.745</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>6.0801</v>
       </c>
       <c r="G88" t="n">
+        <v>154.6266666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>155.8400000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>4868.0526</v>
       </c>
       <c r="G89" t="n">
+        <v>154.6266666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>155.9033333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>265</v>
       </c>
       <c r="G90" t="n">
+        <v>154.4333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>155.98</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>2777.0817</v>
       </c>
       <c r="G91" t="n">
+        <v>154.4933333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>156.0566666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>204</v>
       </c>
       <c r="G92" t="n">
+        <v>154.5466666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>156.1316666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>3844.1392</v>
       </c>
       <c r="G93" t="n">
+        <v>154.6466666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>156.1933333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>540.9404</v>
       </c>
       <c r="G94" t="n">
+        <v>154.8733333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>156.275</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>5892.0438</v>
       </c>
       <c r="G95" t="n">
+        <v>154.9333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>156.2233333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>14</v>
       </c>
       <c r="G96" t="n">
+        <v>155.0666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>156.3033333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>12.7698</v>
       </c>
       <c r="G97" t="n">
+        <v>155.2066666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>156.2883333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>2777</v>
       </c>
       <c r="G98" t="n">
+        <v>155.2066666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>156.32</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>415.5612</v>
       </c>
       <c r="G99" t="n">
+        <v>155.2066666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>156.3166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>7037.4482</v>
       </c>
       <c r="G100" t="n">
+        <v>155.3466666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>156.3483333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>205.9174</v>
       </c>
       <c r="G101" t="n">
+        <v>155.4266666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>156.33</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>24143.9254</v>
       </c>
       <c r="G102" t="n">
+        <v>155.48</v>
+      </c>
+      <c r="H102" t="n">
         <v>156.325</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>1638.9321</v>
       </c>
       <c r="G103" t="n">
+        <v>155.3266666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>156.2866666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>179.2735</v>
       </c>
       <c r="G104" t="n">
+        <v>155.2466666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>156.2</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>3315.483</v>
       </c>
       <c r="G105" t="n">
+        <v>155.1733333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>156.165</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>63.9838</v>
       </c>
       <c r="G106" t="n">
+        <v>155.1000000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>156.0633333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>729.2309</v>
       </c>
       <c r="G107" t="n">
+        <v>155.0266666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>156.0083333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>17.348</v>
       </c>
       <c r="G108" t="n">
+        <v>154.9533333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>155.9066666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>1719.5365</v>
       </c>
       <c r="G109" t="n">
+        <v>154.6866666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>155.8216666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>167</v>
       </c>
       <c r="G110" t="n">
+        <v>154.4933333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>155.69</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>6591.9523</v>
       </c>
       <c r="G111" t="n">
+        <v>154.2800000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>155.6183333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>4564.8934</v>
       </c>
       <c r="G112" t="n">
+        <v>154.0666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>155.5466666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>49.3457</v>
       </c>
       <c r="G113" t="n">
+        <v>153.8733333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>155.4616666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>1838.5515</v>
       </c>
       <c r="G114" t="n">
+        <v>153.7466666666668</v>
+      </c>
+      <c r="H114" t="n">
         <v>155.3933333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>3119.9149</v>
       </c>
       <c r="G115" t="n">
+        <v>153.3733333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>155.3416666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>1329.6032</v>
       </c>
       <c r="G116" t="n">
+        <v>153.2666666666668</v>
+      </c>
+      <c r="H116" t="n">
         <v>155.3083333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>2502.5703</v>
       </c>
       <c r="G117" t="n">
+        <v>153.0466666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>155.2149999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>808.555071356147</v>
       </c>
       <c r="G118" t="n">
+        <v>153.3200000000001</v>
+      </c>
+      <c r="H118" t="n">
         <v>155.2449999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>2689.2783</v>
       </c>
       <c r="G119" t="n">
+        <v>153.3066666666668</v>
+      </c>
+      <c r="H119" t="n">
         <v>155.2049999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>2593.99</v>
       </c>
       <c r="G120" t="n">
+        <v>153.4533333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>155.2233333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>2462.6014</v>
       </c>
       <c r="G121" t="n">
+        <v>153.5133333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>155.1466666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>2570.7385</v>
       </c>
       <c r="G122" t="n">
+        <v>153.4400000000001</v>
+      </c>
+      <c r="H122" t="n">
         <v>155.0916666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>399.6709</v>
       </c>
       <c r="G123" t="n">
+        <v>153.3866666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>154.9766666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>30</v>
       </c>
       <c r="G124" t="n">
+        <v>153.5200000000001</v>
+      </c>
+      <c r="H124" t="n">
         <v>154.8799999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>6.4558</v>
       </c>
       <c r="G125" t="n">
+        <v>153.6466666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>154.7816666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>4096</v>
       </c>
       <c r="G126" t="n">
+        <v>153.5933333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>154.6733333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>1095</v>
       </c>
       <c r="G127" t="n">
+        <v>153.54</v>
+      </c>
+      <c r="H127" t="n">
         <v>154.5649999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>3350</v>
       </c>
       <c r="G128" t="n">
+        <v>153.5933333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>154.5249999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>8.662699999999999</v>
       </c>
       <c r="G129" t="n">
+        <v>153.6533333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>154.4566666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>708.4917</v>
       </c>
       <c r="G130" t="n">
+        <v>153.7400000000001</v>
+      </c>
+      <c r="H130" t="n">
         <v>154.3483333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>1170.5733</v>
       </c>
       <c r="G131" t="n">
+        <v>153.7466666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>154.3066666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>1614.9096</v>
       </c>
       <c r="G132" t="n">
+        <v>153.7533333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>154.2166666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>5.8438</v>
       </c>
       <c r="G133" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H133" t="n">
         <v>154.1683333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>1473.6547</v>
       </c>
       <c r="G134" t="n">
+        <v>153.1733333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>154.0883333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>4603.9321</v>
       </c>
       <c r="G135" t="n">
+        <v>152.8933333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>153.9883333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>2003.1944</v>
       </c>
       <c r="G136" t="n">
+        <v>152.5066666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>153.9033333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>9479.033100000001</v>
       </c>
       <c r="G137" t="n">
+        <v>152.26</v>
+      </c>
+      <c r="H137" t="n">
         <v>153.8183333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>806.0529</v>
       </c>
       <c r="G138" t="n">
+        <v>151.9933333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>153.7449999999999</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>1777.044</v>
       </c>
       <c r="G139" t="n">
+        <v>151.66</v>
+      </c>
+      <c r="H139" t="n">
         <v>153.6849999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>18</v>
       </c>
       <c r="G140" t="n">
+        <v>151.3333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>153.6016666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>3340.9157</v>
       </c>
       <c r="G141" t="n">
+        <v>151.1333333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>153.5183333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>766.7723</v>
       </c>
       <c r="G142" t="n">
+        <v>150.9333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>153.4366666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>3190.0973</v>
       </c>
       <c r="G143" t="n">
+        <v>150.68</v>
+      </c>
+      <c r="H143" t="n">
         <v>153.3383333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>1097.8974</v>
       </c>
       <c r="G144" t="n">
+        <v>150.3533333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>153.2399999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>1000</v>
       </c>
       <c r="G145" t="n">
+        <v>150.1066666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>153.1416666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>1470.5433</v>
       </c>
       <c r="G146" t="n">
+        <v>149.8733333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>153.0783333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>8487.697399999999</v>
       </c>
       <c r="G147" t="n">
+        <v>149.6266666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>152.9766666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>3800.2705</v>
       </c>
       <c r="G148" t="n">
+        <v>149.36</v>
+      </c>
+      <c r="H148" t="n">
         <v>152.8516666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>10156.7038</v>
       </c>
       <c r="G149" t="n">
+        <v>149.2666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>152.7483333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>729.2309</v>
       </c>
       <c r="G150" t="n">
+        <v>149.0133333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>152.6333333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>21</v>
       </c>
       <c r="G151" t="n">
+        <v>149.0000000000001</v>
+      </c>
+      <c r="H151" t="n">
         <v>152.5299999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>20</v>
       </c>
       <c r="G152" t="n">
+        <v>148.9866666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>152.4283333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>75</v>
       </c>
       <c r="G153" t="n">
+        <v>148.9733333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>152.3266666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>6.672221866666667</v>
       </c>
       <c r="G154" t="n">
+        <v>149.0400000000001</v>
+      </c>
+      <c r="H154" t="n">
         <v>152.2266666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>6.6722</v>
       </c>
       <c r="G155" t="n">
+        <v>149.0000000000001</v>
+      </c>
+      <c r="H155" t="n">
         <v>152.1183333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>2959.3243</v>
       </c>
       <c r="G156" t="n">
+        <v>148.8933333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>151.9749999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>1545.3735</v>
       </c>
       <c r="G157" t="n">
+        <v>148.7800000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>151.8299999999999</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>8448.900799999999</v>
       </c>
       <c r="G158" t="n">
+        <v>148.9000000000001</v>
+      </c>
+      <c r="H158" t="n">
         <v>151.7616666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>10.7434</v>
       </c>
       <c r="G159" t="n">
+        <v>148.9666666666668</v>
+      </c>
+      <c r="H159" t="n">
         <v>151.6799999999999</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>10.5561</v>
       </c>
       <c r="G160" t="n">
+        <v>149.1600000000001</v>
+      </c>
+      <c r="H160" t="n">
         <v>151.5949999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>66.66670000000001</v>
       </c>
       <c r="G161" t="n">
+        <v>149.2933333333335</v>
+      </c>
+      <c r="H161" t="n">
         <v>151.5449999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>174.74</v>
       </c>
       <c r="G162" t="n">
+        <v>149.5066666666668</v>
+      </c>
+      <c r="H162" t="n">
         <v>151.4833333333332</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>2762.968845849802</v>
       </c>
       <c r="G163" t="n">
+        <v>149.7266666666668</v>
+      </c>
+      <c r="H163" t="n">
         <v>151.4516666666665</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>1800</v>
       </c>
       <c r="G164" t="n">
+        <v>149.8466666666668</v>
+      </c>
+      <c r="H164" t="n">
         <v>151.3983333333332</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>301</v>
       </c>
       <c r="G165" t="n">
+        <v>150.0133333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>151.3433333333332</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>81.92</v>
       </c>
       <c r="G166" t="n">
+        <v>150.0933333333334</v>
+      </c>
+      <c r="H166" t="n">
         <v>151.2783333333332</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>17598.297</v>
       </c>
       <c r="G167" t="n">
+        <v>150.1200000000001</v>
+      </c>
+      <c r="H167" t="n">
         <v>151.2016666666666</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>145</v>
       </c>
       <c r="G168" t="n">
+        <v>150.1333333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>151.1216666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>62</v>
       </c>
       <c r="G169" t="n">
+        <v>150.0666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>151.0716666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>179.2735</v>
       </c>
       <c r="G170" t="n">
+        <v>150.0666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>151.0116666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>64</v>
       </c>
       <c r="G171" t="n">
+        <v>150.1066666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>150.9316666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>1000</v>
       </c>
       <c r="G172" t="n">
+        <v>150.2200000000001</v>
+      </c>
+      <c r="H172" t="n">
         <v>150.8683333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>1023.3069</v>
       </c>
       <c r="G173" t="n">
+        <v>150.2133333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>150.8466666666666</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>1385.8405</v>
       </c>
       <c r="G174" t="n">
+        <v>149.9533333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>150.7316666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>200</v>
       </c>
       <c r="G175" t="n">
+        <v>149.5666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>150.6433333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>9633.012199999999</v>
       </c>
       <c r="G176" t="n">
+        <v>149.1666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>150.52</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>800</v>
       </c>
       <c r="G177" t="n">
+        <v>148.6266666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>150.3783333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>200</v>
       </c>
       <c r="G178" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="H178" t="n">
         <v>150.1466666666666</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,27 @@
         <v>5979.6534</v>
       </c>
       <c r="G179" t="n">
+        <v>147.6533333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>149.985</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>143.9</v>
+      </c>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7223,27 @@
         <v>2560.9681</v>
       </c>
       <c r="G180" t="n">
+        <v>147.1266666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>149.7616666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>143.9</v>
+      </c>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7267,27 @@
         <v>1595.3323</v>
       </c>
       <c r="G181" t="n">
+        <v>146.6333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>149.5583333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>142.7</v>
+      </c>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7311,27 @@
         <v>250.075</v>
       </c>
       <c r="G182" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="H182" t="n">
         <v>149.3916666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>142.6</v>
+      </c>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7355,27 @@
         <v>23869.74</v>
       </c>
       <c r="G183" t="n">
+        <v>145.7266666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>149.2066666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>142.7</v>
+      </c>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7399,27 @@
         <v>8272.4095</v>
       </c>
       <c r="G184" t="n">
+        <v>145.3266666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>149.0233333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>141.9</v>
+      </c>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7443,27 @@
         <v>382.4778</v>
       </c>
       <c r="G185" t="n">
+        <v>145</v>
+      </c>
+      <c r="H185" t="n">
         <v>148.85</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>143</v>
+      </c>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7487,27 @@
         <v>1758.5781</v>
       </c>
       <c r="G186" t="n">
+        <v>144.5533333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>148.6716666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>143.5</v>
+      </c>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7531,27 @@
         <v>294.731</v>
       </c>
       <c r="G187" t="n">
+        <v>143.96</v>
+      </c>
+      <c r="H187" t="n">
         <v>148.4733333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>142.3</v>
+      </c>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7575,27 @@
         <v>132.2576</v>
       </c>
       <c r="G188" t="n">
+        <v>143.6866666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>148.37</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>141.1</v>
+      </c>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7619,27 @@
         <v>6911.5824</v>
       </c>
       <c r="G189" t="n">
+        <v>143.2866666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>148.14</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>146.6</v>
+      </c>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7663,27 @@
         <v>2029.5626</v>
       </c>
       <c r="G190" t="n">
+        <v>143.1466666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>147.995</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>140.1</v>
+      </c>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7707,25 @@
         <v>1140.0289</v>
       </c>
       <c r="G191" t="n">
+        <v>142.8866666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>147.805</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7749,25 @@
         <v>158.9454</v>
       </c>
       <c r="G192" t="n">
+        <v>143.16</v>
+      </c>
+      <c r="H192" t="n">
         <v>147.73</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7791,25 @@
         <v>11841.8165</v>
       </c>
       <c r="G193" t="n">
+        <v>143</v>
+      </c>
+      <c r="H193" t="n">
         <v>147.5466666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7833,25 @@
         <v>236</v>
       </c>
       <c r="G194" t="n">
+        <v>143.0066666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>147.4433333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7875,25 @@
         <v>104.79</v>
       </c>
       <c r="G195" t="n">
+        <v>143.0266666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>147.295</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7917,25 @@
         <v>263</v>
       </c>
       <c r="G196" t="n">
+        <v>142.96</v>
+      </c>
+      <c r="H196" t="n">
         <v>147.1716666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7959,27 @@
         <v>2186.2503</v>
       </c>
       <c r="G197" t="n">
+        <v>142.8866666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>147.0483333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>141.6</v>
+      </c>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8003,27 @@
         <v>5700.0508</v>
       </c>
       <c r="G198" t="n">
+        <v>142.8333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>146.9166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>141.6</v>
+      </c>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8047,27 @@
         <v>6104.5824</v>
       </c>
       <c r="G199" t="n">
+        <v>142.7066666666666</v>
+      </c>
+      <c r="H199" t="n">
         <v>146.785</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>141.1</v>
+      </c>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,22 +8091,27 @@
         <v>1270</v>
       </c>
       <c r="G200" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="H200" t="n">
         <v>146.7616666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>141.1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
         <v>141.1</v>
       </c>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7417,24 +8135,25 @@
         <v>684.9457</v>
       </c>
       <c r="G201" t="n">
+        <v>143.2266666666666</v>
+      </c>
+      <c r="H201" t="n">
         <v>146.6950000000001</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7458,24 +8177,25 @@
         <v>213.2195</v>
       </c>
       <c r="G202" t="n">
+        <v>143.42</v>
+      </c>
+      <c r="H202" t="n">
         <v>146.5950000000001</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +8219,25 @@
         <v>400</v>
       </c>
       <c r="G203" t="n">
+        <v>143.1333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>146.4833333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,18 +8261,25 @@
         <v>97.2122</v>
       </c>
       <c r="G204" t="n">
+        <v>143.2666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>146.3683333333334</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,18 +8303,25 @@
         <v>325</v>
       </c>
       <c r="G205" t="n">
+        <v>143.0333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>146.2266666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,18 +8345,25 @@
         <v>80.45999999999999</v>
       </c>
       <c r="G206" t="n">
+        <v>143.0933333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>146.11</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,22 +8387,25 @@
         <v>70.81999999999999</v>
       </c>
       <c r="G207" t="n">
+        <v>142.5866666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>145.9700000000001</v>
       </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>142</v>
-      </c>
-      <c r="K207" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7678,24 +8429,25 @@
         <v>63.9838</v>
       </c>
       <c r="G208" t="n">
+        <v>142.5133333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>145.835</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>142</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7719,24 +8471,25 @@
         <v>279.2179</v>
       </c>
       <c r="G209" t="n">
+        <v>142.3733333333334</v>
+      </c>
+      <c r="H209" t="n">
         <v>145.7200000000001</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>142</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7760,18 +8513,445 @@
         <v>231.9772</v>
       </c>
       <c r="G210" t="n">
+        <v>142.1733333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>145.585</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>140</v>
+      </c>
+      <c r="C211" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>140</v>
+      </c>
+      <c r="E211" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1111.4843</v>
+      </c>
+      <c r="G211" t="n">
+        <v>142.0333333333334</v>
+      </c>
+      <c r="H211" t="n">
+        <v>145.43</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="C212" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="D212" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="E212" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G212" t="n">
+        <v>141.92</v>
+      </c>
+      <c r="H212" t="n">
+        <v>145.2816666666667</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="C213" t="n">
+        <v>137</v>
+      </c>
+      <c r="D213" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="E213" t="n">
+        <v>137</v>
+      </c>
+      <c r="F213" t="n">
+        <v>31686.5675</v>
+      </c>
+      <c r="G213" t="n">
+        <v>141.6466666666667</v>
+      </c>
+      <c r="H213" t="n">
+        <v>145.0850000000001</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="C214" t="n">
+        <v>138</v>
+      </c>
+      <c r="D214" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>138</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1058.5457</v>
+      </c>
+      <c r="G214" t="n">
+        <v>141.4400000000001</v>
+      </c>
+      <c r="H214" t="n">
+        <v>144.8850000000001</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="D215" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="E215" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4403</v>
+      </c>
+      <c r="G215" t="n">
+        <v>141.0133333333334</v>
+      </c>
+      <c r="H215" t="n">
+        <v>144.7650000000001</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>139</v>
+      </c>
+      <c r="C216" t="n">
+        <v>139</v>
+      </c>
+      <c r="D216" t="n">
+        <v>139</v>
+      </c>
+      <c r="E216" t="n">
+        <v>139</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G216" t="n">
+        <v>140.5466666666667</v>
+      </c>
+      <c r="H216" t="n">
+        <v>144.6083333333334</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>141</v>
+      </c>
+      <c r="D217" t="n">
+        <v>141</v>
+      </c>
+      <c r="E217" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G217" t="n">
+        <v>140.3466666666667</v>
+      </c>
+      <c r="H217" t="n">
+        <v>144.4866666666668</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="C218" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="E218" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3947</v>
+      </c>
+      <c r="G218" t="n">
+        <v>140.0733333333334</v>
+      </c>
+      <c r="H218" t="n">
+        <v>144.2766666666668</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C219" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3164.6214</v>
+      </c>
+      <c r="G219" t="n">
+        <v>139.9066666666667</v>
+      </c>
+      <c r="H219" t="n">
+        <v>144.1033333333335</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="C220" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="E220" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="F220" t="n">
+        <v>207.4179</v>
+      </c>
+      <c r="G220" t="n">
+        <v>139.7533333333334</v>
+      </c>
+      <c r="H220" t="n">
+        <v>143.8750000000001</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest RDN.xlsx
+++ b/BackTest/2020-01-20 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N278"/>
+  <dimension ref="A1:M278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>224495.9603000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>224545.9603000002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>224545.9603000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>211433.8151000002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>211433.8151000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>211615.3480000002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>211579.3480000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>241028.4437000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>239365.5956000002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>233347.5596000002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>233347.5596000002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>230521.8217000002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>213329.9427000002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>213349.5167000002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4411,15 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>205492.3440335211</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,18 +5500,15 @@
         <v>193367.0881335211</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6360,18 +5863,15 @@
         <v>222692.1378335211</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6396,18 +5896,15 @@
         <v>220972.6013335211</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6432,18 +5929,15 @@
         <v>220972.6013335211</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6468,18 +5962,15 @@
         <v>227564.5536335211</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8484,18 +7810,15 @@
         <v>197556.8212808941</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8916,1734 +8206,1592 @@
         <v>187501.0019808941</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="C238" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="D238" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="E238" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2560.9681</v>
+      </c>
+      <c r="G238" t="n">
+        <v>184940.0338808941</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="C239" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="E239" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1595.3323</v>
+      </c>
+      <c r="G239" t="n">
+        <v>183344.7015808941</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2</v>
+      </c>
+      <c r="I239" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="C238" t="n">
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
         <v>142.7</v>
       </c>
-      <c r="D238" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="E238" t="n">
+      <c r="C240" t="n">
         <v>142.7</v>
       </c>
-      <c r="F238" t="n">
-        <v>2560.9681</v>
-      </c>
-      <c r="G238" t="n">
-        <v>184940.0338808941</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="D240" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="E240" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="F240" t="n">
+        <v>250.075</v>
+      </c>
+      <c r="G240" t="n">
+        <v>183594.7765808941</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
+      <c r="I240" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>142</v>
+      </c>
+      <c r="C241" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="D241" t="n">
+        <v>143</v>
+      </c>
+      <c r="E241" t="n">
+        <v>141</v>
+      </c>
+      <c r="F241" t="n">
+        <v>23869.74</v>
+      </c>
+      <c r="G241" t="n">
+        <v>159725.0365808941</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2</v>
+      </c>
+      <c r="I241" t="n">
         <v>142.7</v>
       </c>
-      <c r="C239" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="D239" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="E239" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1595.3323</v>
-      </c>
-      <c r="G239" t="n">
-        <v>183344.7015808941</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="C240" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="D240" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="E240" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="F240" t="n">
-        <v>250.075</v>
-      </c>
-      <c r="G240" t="n">
-        <v>183594.7765808941</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>141</v>
+      </c>
+      <c r="C242" t="n">
+        <v>143</v>
+      </c>
+      <c r="D242" t="n">
+        <v>143</v>
+      </c>
+      <c r="E242" t="n">
+        <v>141</v>
+      </c>
+      <c r="F242" t="n">
+        <v>8272.4095</v>
+      </c>
+      <c r="G242" t="n">
+        <v>167997.4460808941</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2</v>
+      </c>
+      <c r="I242" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>142</v>
-      </c>
-      <c r="C241" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="D241" t="n">
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
         <v>143</v>
       </c>
-      <c r="E241" t="n">
-        <v>141</v>
-      </c>
-      <c r="F241" t="n">
-        <v>23869.74</v>
-      </c>
-      <c r="G241" t="n">
-        <v>159725.0365808941</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+      <c r="C243" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="D243" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="E243" t="n">
+        <v>143</v>
+      </c>
+      <c r="F243" t="n">
+        <v>382.4778</v>
+      </c>
+      <c r="G243" t="n">
+        <v>168379.9238808941</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+      <c r="I243" t="n">
+        <v>143</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="E244" t="n">
         <v>141</v>
       </c>
-      <c r="C242" t="n">
-        <v>143</v>
-      </c>
-      <c r="D242" t="n">
-        <v>143</v>
-      </c>
-      <c r="E242" t="n">
-        <v>141</v>
-      </c>
-      <c r="F242" t="n">
-        <v>8272.4095</v>
-      </c>
-      <c r="G242" t="n">
-        <v>167997.4460808941</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+      <c r="F244" t="n">
+        <v>1758.5781</v>
+      </c>
+      <c r="G244" t="n">
+        <v>166621.3457808941</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2</v>
+      </c>
+      <c r="I244" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>143</v>
-      </c>
-      <c r="C243" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="D243" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="E243" t="n">
-        <v>143</v>
-      </c>
-      <c r="F243" t="n">
-        <v>382.4778</v>
-      </c>
-      <c r="G243" t="n">
-        <v>168379.9238808941</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>143</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>294.731</v>
+      </c>
+      <c r="G245" t="n">
+        <v>166326.6147808941</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2</v>
+      </c>
+      <c r="I245" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="C246" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="D246" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="E246" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="F246" t="n">
+        <v>132.2576</v>
+      </c>
+      <c r="G246" t="n">
+        <v>166458.8723808941</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2</v>
+      </c>
+      <c r="I246" t="n">
         <v>141.1</v>
       </c>
-      <c r="C244" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="D244" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="E244" t="n">
-        <v>141</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1758.5781</v>
-      </c>
-      <c r="G244" t="n">
-        <v>166621.3457808941</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="C245" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="D245" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="E245" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F245" t="n">
-        <v>294.731</v>
-      </c>
-      <c r="G245" t="n">
-        <v>166326.6147808941</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="E247" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>6911.5824</v>
+      </c>
+      <c r="G247" t="n">
+        <v>159547.2899808941</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
         <v>146.6</v>
       </c>
-      <c r="C246" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="D246" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="E246" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="F246" t="n">
-        <v>132.2576</v>
-      </c>
-      <c r="G246" t="n">
-        <v>166458.8723808941</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+      <c r="C248" t="n">
+        <v>144</v>
+      </c>
+      <c r="D248" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E248" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2029.5626</v>
+      </c>
+      <c r="G248" t="n">
+        <v>161576.8525808941</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2</v>
+      </c>
+      <c r="I248" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="C247" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="D247" t="n">
-        <v>144.3</v>
-      </c>
-      <c r="E247" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="F247" t="n">
-        <v>6911.5824</v>
-      </c>
-      <c r="G247" t="n">
-        <v>159547.2899808941</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="C249" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>149</v>
+      </c>
+      <c r="E249" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1140.0289</v>
+      </c>
+      <c r="G249" t="n">
+        <v>160436.8236808941</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2</v>
+      </c>
+      <c r="I249" t="n">
+        <v>144</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="C248" t="n">
-        <v>144</v>
-      </c>
-      <c r="D248" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="E248" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="F248" t="n">
-        <v>2029.5626</v>
-      </c>
-      <c r="G248" t="n">
-        <v>161576.8525808941</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>148</v>
+      </c>
+      <c r="C250" t="n">
+        <v>148</v>
+      </c>
+      <c r="D250" t="n">
+        <v>148</v>
+      </c>
+      <c r="E250" t="n">
+        <v>148</v>
+      </c>
+      <c r="F250" t="n">
+        <v>158.9454</v>
+      </c>
+      <c r="G250" t="n">
+        <v>160595.7690808941</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2</v>
+      </c>
+      <c r="I250" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="C249" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="D249" t="n">
-        <v>149</v>
-      </c>
-      <c r="E249" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1140.0289</v>
-      </c>
-      <c r="G249" t="n">
-        <v>160436.8236808941</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="n">
-        <v>144</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>146</v>
+      </c>
+      <c r="C251" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="D251" t="n">
+        <v>146</v>
+      </c>
+      <c r="E251" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="F251" t="n">
+        <v>11841.8165</v>
+      </c>
+      <c r="G251" t="n">
+        <v>148753.9525808941</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2</v>
+      </c>
+      <c r="I251" t="n">
+        <v>148</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>148</v>
-      </c>
-      <c r="C250" t="n">
-        <v>148</v>
-      </c>
-      <c r="D250" t="n">
-        <v>148</v>
-      </c>
-      <c r="E250" t="n">
-        <v>148</v>
-      </c>
-      <c r="F250" t="n">
-        <v>158.9454</v>
-      </c>
-      <c r="G250" t="n">
-        <v>160595.7690808941</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>144</v>
+      </c>
+      <c r="C252" t="n">
+        <v>144</v>
+      </c>
+      <c r="D252" t="n">
+        <v>144</v>
+      </c>
+      <c r="E252" t="n">
+        <v>144</v>
+      </c>
+      <c r="F252" t="n">
+        <v>236</v>
+      </c>
+      <c r="G252" t="n">
+        <v>148989.9525808941</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2</v>
+      </c>
+      <c r="I252" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>146</v>
-      </c>
-      <c r="C251" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="D251" t="n">
-        <v>146</v>
-      </c>
-      <c r="E251" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="F251" t="n">
-        <v>11841.8165</v>
-      </c>
-      <c r="G251" t="n">
-        <v>148753.9525808941</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>147</v>
+      </c>
+      <c r="C253" t="n">
+        <v>143</v>
+      </c>
+      <c r="D253" t="n">
+        <v>147</v>
+      </c>
+      <c r="E253" t="n">
+        <v>143</v>
+      </c>
+      <c r="F253" t="n">
+        <v>104.79</v>
+      </c>
+      <c r="G253" t="n">
+        <v>148885.162580894</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2</v>
+      </c>
+      <c r="I253" t="n">
+        <v>144</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>144</v>
-      </c>
-      <c r="C252" t="n">
-        <v>144</v>
-      </c>
-      <c r="D252" t="n">
-        <v>144</v>
-      </c>
-      <c r="E252" t="n">
-        <v>144</v>
-      </c>
-      <c r="F252" t="n">
-        <v>236</v>
-      </c>
-      <c r="G252" t="n">
-        <v>148989.9525808941</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="C254" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="D254" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="E254" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="F254" t="n">
+        <v>263</v>
+      </c>
+      <c r="G254" t="n">
+        <v>148622.162580894</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2</v>
+      </c>
+      <c r="I254" t="n">
+        <v>143</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>147</v>
-      </c>
-      <c r="C253" t="n">
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
         <v>143</v>
       </c>
-      <c r="D253" t="n">
-        <v>147</v>
-      </c>
-      <c r="E253" t="n">
+      <c r="C255" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="D255" t="n">
         <v>143</v>
       </c>
-      <c r="F253" t="n">
-        <v>104.79</v>
-      </c>
-      <c r="G253" t="n">
-        <v>148885.162580894</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
+      <c r="E255" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2186.2503</v>
+      </c>
+      <c r="G255" t="n">
+        <v>148622.162580894</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2</v>
+      </c>
+      <c r="I255" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="C256" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="E256" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>5700.0508</v>
+      </c>
+      <c r="G256" t="n">
+        <v>142922.111780894</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2</v>
+      </c>
+      <c r="I256" t="n">
         <v>141.6</v>
       </c>
-      <c r="C254" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="D254" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="E254" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="F254" t="n">
-        <v>263</v>
-      </c>
-      <c r="G254" t="n">
-        <v>148622.162580894</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>143</v>
-      </c>
-      <c r="C255" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="D255" t="n">
-        <v>143</v>
-      </c>
-      <c r="E255" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="F255" t="n">
-        <v>2186.2503</v>
-      </c>
-      <c r="G255" t="n">
-        <v>148622.162580894</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="C257" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>6104.5824</v>
+      </c>
+      <c r="G257" t="n">
+        <v>142922.111780894</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2</v>
+      </c>
+      <c r="I257" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="C256" t="n">
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>142</v>
+      </c>
+      <c r="C258" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="D258" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="E258" t="n">
+        <v>142</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1270</v>
+      </c>
+      <c r="G258" t="n">
+        <v>144192.111780894</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2</v>
+      </c>
+      <c r="I258" t="n">
         <v>141.1</v>
       </c>
-      <c r="D256" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="E256" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F256" t="n">
-        <v>5700.0508</v>
-      </c>
-      <c r="G256" t="n">
-        <v>142922.111780894</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="C257" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="D257" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="E257" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F257" t="n">
-        <v>6104.5824</v>
-      </c>
-      <c r="G257" t="n">
-        <v>142922.111780894</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>144</v>
+      </c>
+      <c r="C259" t="n">
+        <v>146</v>
+      </c>
+      <c r="D259" t="n">
+        <v>146</v>
+      </c>
+      <c r="E259" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F259" t="n">
+        <v>684.9457</v>
+      </c>
+      <c r="G259" t="n">
+        <v>143507.166080894</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2</v>
+      </c>
+      <c r="I259" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>142</v>
-      </c>
-      <c r="C258" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="D258" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="E258" t="n">
-        <v>142</v>
-      </c>
-      <c r="F258" t="n">
-        <v>1270</v>
-      </c>
-      <c r="G258" t="n">
-        <v>144192.111780894</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>145</v>
+      </c>
+      <c r="C260" t="n">
+        <v>144</v>
+      </c>
+      <c r="D260" t="n">
+        <v>145</v>
+      </c>
+      <c r="E260" t="n">
+        <v>144</v>
+      </c>
+      <c r="F260" t="n">
+        <v>213.2195</v>
+      </c>
+      <c r="G260" t="n">
+        <v>143293.946580894</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2</v>
+      </c>
+      <c r="I260" t="n">
+        <v>146</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
         <v>144</v>
       </c>
-      <c r="C259" t="n">
-        <v>146</v>
-      </c>
-      <c r="D259" t="n">
-        <v>146</v>
-      </c>
-      <c r="E259" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="F259" t="n">
-        <v>684.9457</v>
-      </c>
-      <c r="G259" t="n">
-        <v>143507.166080894</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
+      <c r="C261" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="D261" t="n">
+        <v>144</v>
+      </c>
+      <c r="E261" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="F261" t="n">
+        <v>400</v>
+      </c>
+      <c r="G261" t="n">
+        <v>142893.946580894</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>145</v>
-      </c>
-      <c r="C260" t="n">
-        <v>144</v>
-      </c>
-      <c r="D260" t="n">
-        <v>145</v>
-      </c>
-      <c r="E260" t="n">
-        <v>144</v>
-      </c>
-      <c r="F260" t="n">
-        <v>213.2195</v>
-      </c>
-      <c r="G260" t="n">
-        <v>143293.946580894</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="n">
-        <v>146</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="E262" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>97.2122</v>
+      </c>
+      <c r="G262" t="n">
+        <v>142796.734380894</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>144</v>
-      </c>
-      <c r="C261" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="D261" t="n">
-        <v>144</v>
-      </c>
-      <c r="E261" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="F261" t="n">
-        <v>400</v>
-      </c>
-      <c r="G261" t="n">
-        <v>142893.946580894</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="n">
-        <v>144</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>143</v>
+      </c>
+      <c r="C263" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="D263" t="n">
+        <v>143</v>
+      </c>
+      <c r="E263" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>325</v>
+      </c>
+      <c r="G263" t="n">
+        <v>142471.734380894</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="C262" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="D262" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="E262" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="F262" t="n">
-        <v>97.2122</v>
-      </c>
-      <c r="G262" t="n">
-        <v>142796.734380894</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>142</v>
+      </c>
+      <c r="C264" t="n">
+        <v>142</v>
+      </c>
+      <c r="D264" t="n">
+        <v>142</v>
+      </c>
+      <c r="E264" t="n">
+        <v>142</v>
+      </c>
+      <c r="F264" t="n">
+        <v>80.45999999999999</v>
+      </c>
+      <c r="G264" t="n">
+        <v>142552.194380894</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>143</v>
-      </c>
-      <c r="C263" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="D263" t="n">
-        <v>143</v>
-      </c>
-      <c r="E263" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="F263" t="n">
-        <v>325</v>
-      </c>
-      <c r="G263" t="n">
-        <v>142471.734380894</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="C265" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D265" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="E265" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="F265" t="n">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="G265" t="n">
+        <v>142481.374380894</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>142</v>
-      </c>
-      <c r="C264" t="n">
-        <v>142</v>
-      </c>
-      <c r="D264" t="n">
-        <v>142</v>
-      </c>
-      <c r="E264" t="n">
-        <v>142</v>
-      </c>
-      <c r="F264" t="n">
-        <v>80.45999999999999</v>
-      </c>
-      <c r="G264" t="n">
-        <v>142552.194380894</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="C266" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D266" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="E266" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="F266" t="n">
+        <v>63.9838</v>
+      </c>
+      <c r="G266" t="n">
+        <v>142481.374380894</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="C267" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="D267" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="E267" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="F267" t="n">
+        <v>279.2179</v>
+      </c>
+      <c r="G267" t="n">
+        <v>142760.592280894</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2</v>
+      </c>
+      <c r="I267" t="n">
         <v>140.4</v>
       </c>
-      <c r="C265" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="D265" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="E265" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="F265" t="n">
-        <v>70.81999999999999</v>
-      </c>
-      <c r="G265" t="n">
-        <v>142481.374380894</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>142</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
         <v>140.4</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C268" t="n">
+        <v>140</v>
+      </c>
+      <c r="D268" t="n">
         <v>140.4</v>
       </c>
-      <c r="D266" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="E266" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="F266" t="n">
-        <v>63.9838</v>
-      </c>
-      <c r="G266" t="n">
-        <v>142481.374380894</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
+      <c r="E268" t="n">
+        <v>140</v>
+      </c>
+      <c r="F268" t="n">
+        <v>231.9772</v>
+      </c>
+      <c r="G268" t="n">
+        <v>142528.615080894</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+      <c r="I268" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="C267" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="D267" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="E267" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="F267" t="n">
-        <v>279.2179</v>
-      </c>
-      <c r="G267" t="n">
-        <v>142760.592280894</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>140</v>
+      </c>
+      <c r="C269" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>140</v>
+      </c>
+      <c r="E269" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1111.4843</v>
+      </c>
+      <c r="G269" t="n">
+        <v>141417.130780894</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2</v>
+      </c>
+      <c r="I269" t="n">
+        <v>140</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="C268" t="n">
-        <v>140</v>
-      </c>
-      <c r="D268" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="E268" t="n">
-        <v>140</v>
-      </c>
-      <c r="F268" t="n">
-        <v>231.9772</v>
-      </c>
-      <c r="G268" t="n">
-        <v>142528.615080894</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="C270" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="D270" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="E270" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G270" t="n">
+        <v>142487.130780894</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2</v>
+      </c>
+      <c r="I270" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>140</v>
-      </c>
-      <c r="C269" t="n">
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
         <v>139.5</v>
       </c>
-      <c r="D269" t="n">
-        <v>140</v>
-      </c>
-      <c r="E269" t="n">
+      <c r="C271" t="n">
+        <v>137</v>
+      </c>
+      <c r="D271" t="n">
         <v>139.5</v>
       </c>
-      <c r="F269" t="n">
-        <v>1111.4843</v>
-      </c>
-      <c r="G269" t="n">
-        <v>141417.130780894</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="n">
-        <v>140</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
+      <c r="E271" t="n">
+        <v>137</v>
+      </c>
+      <c r="F271" t="n">
+        <v>31686.5675</v>
+      </c>
+      <c r="G271" t="n">
+        <v>110800.563280894</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
+      <c r="I271" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="C270" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="D270" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="E270" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1070</v>
-      </c>
-      <c r="G270" t="n">
-        <v>142487.130780894</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="C272" t="n">
+        <v>138</v>
+      </c>
+      <c r="D272" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="E272" t="n">
+        <v>138</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1058.5457</v>
+      </c>
+      <c r="G272" t="n">
+        <v>111859.108980894</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2</v>
+      </c>
+      <c r="I272" t="n">
+        <v>137</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="C271" t="n">
-        <v>137</v>
-      </c>
-      <c r="D271" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="E271" t="n">
-        <v>137</v>
-      </c>
-      <c r="F271" t="n">
-        <v>31686.5675</v>
-      </c>
-      <c r="G271" t="n">
-        <v>110800.563280894</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="C273" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="D273" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="E273" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="F273" t="n">
+        <v>4403</v>
+      </c>
+      <c r="G273" t="n">
+        <v>116262.108980894</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2</v>
+      </c>
+      <c r="I273" t="n">
+        <v>138</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="C272" t="n">
-        <v>138</v>
-      </c>
-      <c r="D272" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="E272" t="n">
-        <v>138</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1058.5457</v>
-      </c>
-      <c r="G272" t="n">
-        <v>111859.108980894</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="n">
-        <v>137</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>139</v>
+      </c>
+      <c r="C274" t="n">
+        <v>139</v>
+      </c>
+      <c r="D274" t="n">
+        <v>139</v>
+      </c>
+      <c r="E274" t="n">
+        <v>139</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G274" t="n">
+        <v>114362.108980894</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="C273" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="D273" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="E273" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="F273" t="n">
-        <v>4403</v>
-      </c>
-      <c r="G273" t="n">
-        <v>116262.108980894</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="n">
-        <v>138</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>141</v>
+      </c>
+      <c r="D275" t="n">
+        <v>141</v>
+      </c>
+      <c r="E275" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G275" t="n">
+        <v>117562.108980894</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>139</v>
-      </c>
-      <c r="C274" t="n">
-        <v>139</v>
-      </c>
-      <c r="D274" t="n">
-        <v>139</v>
-      </c>
-      <c r="E274" t="n">
-        <v>139</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G274" t="n">
-        <v>114362.108980894</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="C276" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="E276" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3947</v>
+      </c>
+      <c r="G276" t="n">
+        <v>113615.108980894</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2</v>
+      </c>
+      <c r="I276" t="n">
+        <v>141</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>139.1</v>
-      </c>
-      <c r="C275" t="n">
-        <v>141</v>
-      </c>
-      <c r="D275" t="n">
-        <v>141</v>
-      </c>
-      <c r="E275" t="n">
-        <v>139.1</v>
-      </c>
-      <c r="F275" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G275" t="n">
-        <v>117562.108980894</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="n">
-        <v>139</v>
-      </c>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="C277" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="D277" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="E277" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3164.6214</v>
+      </c>
+      <c r="G277" t="n">
+        <v>116779.730380894</v>
+      </c>
+      <c r="H277" t="n">
+        <v>2</v>
+      </c>
+      <c r="I277" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="C276" t="n">
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
         <v>138.2</v>
       </c>
-      <c r="D276" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="E276" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="F276" t="n">
-        <v>3947</v>
-      </c>
-      <c r="G276" t="n">
-        <v>113615.108980894</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="n">
-        <v>141</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
+      <c r="C278" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="D278" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="E278" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="F278" t="n">
+        <v>207.4179</v>
+      </c>
+      <c r="G278" t="n">
+        <v>116572.312480894</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2</v>
+      </c>
+      <c r="I278" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="C277" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="D277" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="E277" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="F277" t="n">
-        <v>3164.6214</v>
-      </c>
-      <c r="G277" t="n">
-        <v>116779.730380894</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="C278" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="D278" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="E278" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="F278" t="n">
-        <v>207.4179</v>
-      </c>
-      <c r="G278" t="n">
-        <v>116572.312480894</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest RDN.xlsx
+++ b/BackTest/2020-01-20 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>109905.6996</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>112201.5143</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>148.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>129619.7669</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>129619.7669</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>129619.7669</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +647,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +686,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +725,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +764,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1037,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1076,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1115,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1817,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1856,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1895,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1934,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1973,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2012,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2051,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2090,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2129,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2168,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2246,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2363,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2402,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2480,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2675,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2792,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2945,17 @@
         <v>224495.9603000002</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2984,17 @@
         <v>224545.9603000002</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3023,17 @@
         <v>224545.9603000002</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,13 +3257,19 @@
         <v>214586.7697000002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>1.037367182246133</v>
       </c>
       <c r="M74" t="inlineStr"/>
     </row>
@@ -2860,7 +3296,7 @@
         <v>212919.5635000002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3025,7 +3461,7 @@
         <v>211090.8151000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3494,7 @@
         <v>211433.8151000002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3527,7 @@
         <v>211433.8151000002</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3560,7 @@
         <v>211615.3480000002</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3593,7 @@
         <v>211583.3480000002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3626,7 @@
         <v>211579.3480000002</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3692,7 @@
         <v>215669.1938000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3454,7 +3890,7 @@
         <v>215828.2347000002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3923,7 @@
         <v>211360.2556000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3751,7 +4187,7 @@
         <v>218624.9154855348</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +4220,7 @@
         <v>216291.4156855348</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +4253,7 @@
         <v>226404.5445000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4286,7 @@
         <v>217985.3080000002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4319,7 @@
         <v>241028.4437000002</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4352,7 @@
         <v>237931.2657000002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4385,7 @@
         <v>239365.5956000002</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4418,7 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4451,7 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4484,7 @@
         <v>233347.5596000002</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4517,7 @@
         <v>233347.5596000002</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4550,7 @@
         <v>230521.8217000002</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4583,7 @@
         <v>205432.7382000002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4616,7 @@
         <v>220387.5760000002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4649,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4682,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4715,7 @@
         <v>213329.9427000002</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4748,7 @@
         <v>213349.5167000002</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4781,7 @@
         <v>213212.6267000001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4814,7 @@
         <v>214279.2641335211</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4847,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4880,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4913,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4946,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4979,7 @@
         <v>208189.2161335211</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +5012,7 @@
         <v>209378.9303335211</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +5045,7 @@
         <v>212817.0275335211</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +5078,7 @@
         <v>212270.0001335211</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +5111,7 @@
         <v>212414.2721335211</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +5144,7 @@
         <v>205492.3440335211</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +5177,7 @@
         <v>205014.7090335211</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +5210,7 @@
         <v>207201.3232335211</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +5243,7 @@
         <v>203257.8533335211</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5276,7 @@
         <v>203257.8533335211</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5309,7 @@
         <v>201912.2100335211</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5342,7 @@
         <v>201217.9046335211</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5005,7 +5441,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5474,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5507,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5540,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5573,7 @@
         <v>200546.8267335211</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5606,7 @@
         <v>203770.1640335211</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5639,7 @@
         <v>203776.2441335211</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5672,7 @@
         <v>198908.1915335211</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5705,7 @@
         <v>198908.1915335211</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5738,7 @@
         <v>198908.1915335211</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5771,7 @@
         <v>198704.1915335211</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5804,7 @@
         <v>198704.1915335211</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5870,7 @@
         <v>193353.0881335211</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5903,7 @@
         <v>193367.0881335211</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5936,7 @@
         <v>193367.0881335211</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5969,7 @@
         <v>190590.0881335211</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +6035,7 @@
         <v>197627.5363335211</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +6068,7 @@
         <v>197421.6189335211</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +6101,7 @@
         <v>221565.5443335211</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +6134,7 @@
         <v>219926.6122335211</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +6167,7 @@
         <v>220105.8857335211</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +6200,7 @@
         <v>223421.3687335211</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +6233,7 @@
         <v>223421.3687335211</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +6266,7 @@
         <v>222692.1378335211</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6299,7 @@
         <v>222692.1378335211</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6332,7 @@
         <v>220972.6013335211</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6365,7 @@
         <v>220972.6013335211</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6398,7 @@
         <v>227564.5536335211</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6431,7 @@
         <v>227564.5536335211</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6464,7 @@
         <v>227515.2079335211</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6497,7 @@
         <v>229353.7594335211</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6530,7 @@
         <v>226233.8445335211</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6563,7 @@
         <v>227563.4477335211</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6596,7 @@
         <v>227563.4477335211</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6629,7 @@
         <v>228372.0028048773</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6662,7 @@
         <v>225682.7245048773</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6695,7 @@
         <v>228276.7145048773</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6728,7 @@
         <v>225814.1131048773</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6761,7 @@
         <v>223243.3746048773</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6794,7 @@
         <v>223643.0455048773</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6827,7 @@
         <v>223673.0455048773</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6860,7 @@
         <v>223666.5897048773</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6893,7 @@
         <v>219570.5897048773</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6926,7 @@
         <v>219570.5897048773</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6959,7 @@
         <v>216220.5897048773</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6992,7 @@
         <v>216229.2524048772</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +7025,7 @@
         <v>215520.7607048772</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +7058,7 @@
         <v>214350.1874048772</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +7091,7 @@
         <v>214350.1874048772</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7124,7 @@
         <v>214350.1874048772</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +7157,7 @@
         <v>212876.5327048772</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +7190,7 @@
         <v>217480.4648048772</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7223,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7256,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7289,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7322,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7355,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7388,7 @@
         <v>218818.1861048772</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7421,7 @@
         <v>218818.1861048772</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7454,7 @@
         <v>215628.0888048772</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7487,7 @@
         <v>215628.0888048772</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7520,7 @@
         <v>215628.0888048772</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7553,7 @@
         <v>215628.0888048772</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7586,7 @@
         <v>207140.3914048772</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7619,7 @@
         <v>203340.1209048772</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7652,7 @@
         <v>213496.8247048772</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7685,7 @@
         <v>212767.5938048772</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7718,7 @@
         <v>212788.5938048772</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7751,7 @@
         <v>212788.5938048772</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7784,7 @@
         <v>212788.5938048772</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7817,7 @@
         <v>212795.2660267439</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7850,7 @@
         <v>212788.5938267439</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7883,7 @@
         <v>212788.5938267439</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7916,7 @@
         <v>211243.2203267439</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7949,7 @@
         <v>219692.1211267439</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7982,7 @@
         <v>219681.3777267439</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +8015,7 @@
         <v>219691.9338267439</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7678,7 +8114,7 @@
         <v>217037.0382808941</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7744,7 +8180,7 @@
         <v>215237.0382808941</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7810,7 +8246,7 @@
         <v>197556.8212808941</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +8279,7 @@
         <v>197411.8212808941</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +8312,7 @@
         <v>197411.8212808941</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +8345,7 @@
         <v>197232.5477808941</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8272,17 +8708,11 @@
         <v>183344.7015808941</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>142.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8311,17 +8741,11 @@
         <v>183594.7765808941</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>142.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8350,17 +8774,11 @@
         <v>159725.0365808941</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>142.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8389,17 +8807,11 @@
         <v>167997.4460808941</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>141.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8428,17 +8840,11 @@
         <v>168379.9238808941</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8467,17 +8873,11 @@
         <v>166621.3457808941</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>143.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8506,17 +8906,11 @@
         <v>166326.6147808941</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>142.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8545,17 +8939,11 @@
         <v>166458.8723808941</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>141.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8588,11 +8976,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8621,17 +9005,11 @@
         <v>161576.8525808941</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>140.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8660,17 +9038,11 @@
         <v>160436.8236808941</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8699,17 +9071,11 @@
         <v>160595.7690808941</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>141.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8738,17 +9104,11 @@
         <v>148753.9525808941</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8777,17 +9137,11 @@
         <v>148989.9525808941</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>141.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8816,17 +9170,11 @@
         <v>148885.162580894</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8855,17 +9203,11 @@
         <v>148622.162580894</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8894,17 +9236,11 @@
         <v>148622.162580894</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>141.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8933,17 +9269,11 @@
         <v>142922.111780894</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>141.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8972,17 +9302,11 @@
         <v>142922.111780894</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>141.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9011,17 +9335,11 @@
         <v>144192.111780894</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>141.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9050,17 +9368,11 @@
         <v>143507.166080894</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>147.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9089,17 +9401,11 @@
         <v>143293.946580894</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9132,11 +9438,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9169,11 +9471,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9206,11 +9504,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9243,11 +9537,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9280,11 +9570,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9317,11 +9603,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9350,17 +9632,11 @@
         <v>142760.592280894</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>140.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9389,17 +9665,11 @@
         <v>142528.615080894</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>141.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9428,17 +9698,11 @@
         <v>141417.130780894</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9467,17 +9731,11 @@
         <v>142487.130780894</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>139.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9506,17 +9764,11 @@
         <v>110800.563280894</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9545,17 +9797,11 @@
         <v>111859.108980894</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9584,17 +9830,11 @@
         <v>116262.108980894</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9627,11 +9867,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9664,11 +9900,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9697,17 +9929,11 @@
         <v>113615.108980894</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9736,17 +9962,11 @@
         <v>116779.730380894</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>138.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9775,23 +9995,17 @@
         <v>116572.312480894</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>139.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
       <c r="M278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest RDN.xlsx
+++ b/BackTest/2020-01-20 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>109905.6996</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>112201.5143</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>148.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>129619.7669</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>129619.7669</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>129619.7669</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -647,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -686,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -725,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -764,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -803,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -878,17 +814,11 @@
         <v>126702.4178000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -917,17 +847,11 @@
         <v>133499.2253850456</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -959,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -998,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1154,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1190,17 +1078,11 @@
         <v>139957.2139000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1229,17 +1111,11 @@
         <v>144342.7006000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1268,17 +1144,11 @@
         <v>143063.4111000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1349,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1388,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1427,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1505,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1544,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1583,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1622,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1661,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1700,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1739,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1778,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1817,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1856,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1895,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1934,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1973,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2012,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2051,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2090,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2129,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2168,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2207,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2246,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2285,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2324,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2363,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2402,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2441,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2480,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2519,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2558,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2597,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2675,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2714,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2753,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2792,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2831,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2870,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2909,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2948,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2987,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3026,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3065,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3104,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3221,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3257,19 +2827,13 @@
         <v>214586.7697000002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>1.037367182246133</v>
+        <v>1</v>
       </c>
       <c r="M74" t="inlineStr"/>
     </row>
@@ -3296,7 +2860,7 @@
         <v>212919.5635000002</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3461,7 +3025,7 @@
         <v>211090.8151000002</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3527,7 +3091,7 @@
         <v>211433.8151000002</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3593,7 +3157,7 @@
         <v>211583.3480000002</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3692,7 +3256,7 @@
         <v>215669.1938000002</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3890,7 +3454,7 @@
         <v>215828.2347000002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3923,7 +3487,7 @@
         <v>211360.2556000002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4187,7 +3751,7 @@
         <v>218624.9154855348</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4220,7 +3784,7 @@
         <v>216291.4156855348</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4253,7 +3817,7 @@
         <v>226404.5445000002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4286,7 +3850,7 @@
         <v>217985.3080000002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4319,7 +3883,7 @@
         <v>241028.4437000002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4352,7 +3916,7 @@
         <v>237931.2657000002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4385,7 +3949,7 @@
         <v>239365.5956000002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4418,7 +3982,7 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4451,7 +4015,7 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4484,7 +4048,7 @@
         <v>233347.5596000002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4517,7 +4081,7 @@
         <v>233347.5596000002</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4550,7 +4114,7 @@
         <v>230521.8217000002</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4583,7 +4147,7 @@
         <v>205432.7382000002</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4616,7 +4180,7 @@
         <v>220387.5760000002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4649,7 +4213,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4682,7 +4246,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4715,7 +4279,7 @@
         <v>213329.9427000002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4748,7 +4312,7 @@
         <v>213349.5167000002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4781,7 +4345,7 @@
         <v>213212.6267000001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4814,7 +4378,7 @@
         <v>214279.2641335211</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4847,7 +4411,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4880,7 +4444,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4913,7 +4477,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4946,7 +4510,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4979,7 +4543,7 @@
         <v>208189.2161335211</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5012,7 +4576,7 @@
         <v>209378.9303335211</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5045,7 +4609,7 @@
         <v>212817.0275335211</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5078,7 +4642,7 @@
         <v>212270.0001335211</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5111,7 +4675,7 @@
         <v>212414.2721335211</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5144,7 +4708,7 @@
         <v>205492.3440335211</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5177,7 +4741,7 @@
         <v>205014.7090335211</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5210,7 +4774,7 @@
         <v>207201.3232335211</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5243,7 +4807,7 @@
         <v>203257.8533335211</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5276,7 +4840,7 @@
         <v>203257.8533335211</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5309,7 +4873,7 @@
         <v>201912.2100335211</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5342,7 +4906,7 @@
         <v>201217.9046335211</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5441,7 +5005,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5474,7 +5038,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5507,7 +5071,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5540,7 +5104,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5573,7 +5137,7 @@
         <v>200546.8267335211</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5606,7 +5170,7 @@
         <v>203770.1640335211</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5639,7 +5203,7 @@
         <v>203776.2441335211</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5672,7 +5236,7 @@
         <v>198908.1915335211</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5705,7 +5269,7 @@
         <v>198908.1915335211</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5738,7 +5302,7 @@
         <v>198908.1915335211</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5771,7 +5335,7 @@
         <v>198704.1915335211</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5804,7 +5368,7 @@
         <v>198704.1915335211</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5870,7 +5434,7 @@
         <v>193353.0881335211</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5903,7 +5467,7 @@
         <v>193367.0881335211</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5936,7 +5500,7 @@
         <v>193367.0881335211</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5969,7 +5533,7 @@
         <v>190590.0881335211</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6035,7 +5599,7 @@
         <v>197627.5363335211</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6068,7 +5632,7 @@
         <v>197421.6189335211</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6101,7 +5665,7 @@
         <v>221565.5443335211</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6134,7 +5698,7 @@
         <v>219926.6122335211</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6167,7 +5731,7 @@
         <v>220105.8857335211</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6200,7 +5764,7 @@
         <v>223421.3687335211</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6233,7 +5797,7 @@
         <v>223421.3687335211</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6266,7 +5830,7 @@
         <v>222692.1378335211</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6299,7 +5863,7 @@
         <v>222692.1378335211</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6332,7 +5896,7 @@
         <v>220972.6013335211</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6365,7 +5929,7 @@
         <v>220972.6013335211</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6398,7 +5962,7 @@
         <v>227564.5536335211</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6431,7 +5995,7 @@
         <v>227564.5536335211</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6464,7 +6028,7 @@
         <v>227515.2079335211</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6497,7 +6061,7 @@
         <v>229353.7594335211</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6530,7 +6094,7 @@
         <v>226233.8445335211</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6563,7 +6127,7 @@
         <v>227563.4477335211</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6596,7 +6160,7 @@
         <v>227563.4477335211</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6629,7 +6193,7 @@
         <v>228372.0028048773</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6662,7 +6226,7 @@
         <v>225682.7245048773</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6695,7 +6259,7 @@
         <v>228276.7145048773</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6728,7 +6292,7 @@
         <v>225814.1131048773</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6761,7 +6325,7 @@
         <v>223243.3746048773</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6794,7 +6358,7 @@
         <v>223643.0455048773</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6827,7 +6391,7 @@
         <v>223673.0455048773</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6860,7 +6424,7 @@
         <v>223666.5897048773</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6893,7 +6457,7 @@
         <v>219570.5897048773</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6926,7 +6490,7 @@
         <v>219570.5897048773</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6959,7 +6523,7 @@
         <v>216220.5897048773</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6992,7 +6556,7 @@
         <v>216229.2524048772</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7025,7 +6589,7 @@
         <v>215520.7607048772</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7058,7 +6622,7 @@
         <v>214350.1874048772</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7091,7 +6655,7 @@
         <v>214350.1874048772</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7124,7 +6688,7 @@
         <v>214350.1874048772</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7157,7 +6721,7 @@
         <v>212876.5327048772</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7190,7 +6754,7 @@
         <v>217480.4648048772</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7223,7 +6787,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7256,7 +6820,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7289,7 +6853,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7322,7 +6886,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7355,7 +6919,7 @@
         <v>215477.2704048772</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7388,7 +6952,7 @@
         <v>218818.1861048772</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7421,7 +6985,7 @@
         <v>218818.1861048772</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7454,7 +7018,7 @@
         <v>215628.0888048772</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7487,7 +7051,7 @@
         <v>215628.0888048772</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7520,7 +7084,7 @@
         <v>215628.0888048772</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7553,7 +7117,7 @@
         <v>215628.0888048772</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7586,7 +7150,7 @@
         <v>207140.3914048772</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7619,7 +7183,7 @@
         <v>203340.1209048772</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7652,7 +7216,7 @@
         <v>213496.8247048772</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7685,7 +7249,7 @@
         <v>212767.5938048772</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7718,7 +7282,7 @@
         <v>212788.5938048772</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7751,7 +7315,7 @@
         <v>212788.5938048772</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7784,7 +7348,7 @@
         <v>212788.5938048772</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7817,7 +7381,7 @@
         <v>212795.2660267439</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7850,7 +7414,7 @@
         <v>212788.5938267439</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7883,7 +7447,7 @@
         <v>212788.5938267439</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7916,7 +7480,7 @@
         <v>211243.2203267439</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7949,7 +7513,7 @@
         <v>219692.1211267439</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7982,7 +7546,7 @@
         <v>219681.3777267439</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8015,7 +7579,7 @@
         <v>219691.9338267439</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8114,7 +7678,7 @@
         <v>217037.0382808941</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8180,7 +7744,7 @@
         <v>215237.0382808941</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8279,7 +7843,7 @@
         <v>197411.8212808941</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8312,7 +7876,7 @@
         <v>197411.8212808941</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8345,7 +7909,7 @@
         <v>197232.5477808941</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8774,11 +8338,17 @@
         <v>159725.0365808941</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>142.7</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8811,7 +8381,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8844,7 +8418,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8877,7 +8455,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8910,7 +8492,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8939,11 +8525,17 @@
         <v>166458.8723808941</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>141.1</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8976,7 +8568,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9009,7 +8605,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9042,7 +8642,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9075,7 +8679,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9108,7 +8716,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9141,7 +8753,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9174,7 +8790,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9207,7 +8827,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9240,7 +8864,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9273,7 +8901,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9306,7 +8938,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9339,7 +8975,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9372,7 +9012,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9405,7 +9049,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9438,7 +9086,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9471,7 +9123,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9504,7 +9160,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9537,7 +9197,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9570,7 +9234,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9603,7 +9271,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9636,7 +9308,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9669,7 +9345,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9698,11 +9378,17 @@
         <v>141417.130780894</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>140</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9731,11 +9417,17 @@
         <v>142487.130780894</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>139.5</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9764,11 +9456,17 @@
         <v>110800.563280894</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>139.9</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9801,7 +9499,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9830,11 +9532,17 @@
         <v>116262.108980894</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>138</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9863,11 +9571,17 @@
         <v>114362.108980894</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>141.2</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9900,7 +9614,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9933,7 +9651,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9962,11 +9684,17 @@
         <v>116779.730380894</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>138.2</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9995,17 +9723,23 @@
         <v>116572.312480894</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>139.6</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
       <c r="M278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest RDN.xlsx
+++ b/BackTest/2020-01-20 BackTest RDN.xlsx
@@ -451,7 +451,7 @@
         <v>109905.6996</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>112201.5143</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>148.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>129619.7669</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>129619.7669</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -814,7 +834,7 @@
         <v>126702.4178000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +867,7 @@
         <v>133499.2253850456</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1078,7 +1098,7 @@
         <v>139957.2139000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1131,7 @@
         <v>144342.7006000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1164,7 @@
         <v>143063.4111000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -3190,7 +3210,7 @@
         <v>211579.3480000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3850,7 +3870,7 @@
         <v>217985.3080000002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3903,7 @@
         <v>241028.4437000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3936,7 @@
         <v>237931.2657000002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +4002,7 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4035,7 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4101,7 @@
         <v>233347.5596000002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4134,7 @@
         <v>230521.8217000002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4167,7 @@
         <v>205432.7382000002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4200,7 @@
         <v>220387.5760000002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4233,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4266,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4299,7 @@
         <v>213329.9427000002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4332,7 @@
         <v>213349.5167000002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4365,7 @@
         <v>213212.6267000001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4398,7 @@
         <v>214279.2641335211</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4431,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4464,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4497,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4530,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4563,7 @@
         <v>208189.2161335211</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4596,7 @@
         <v>209378.9303335211</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4629,7 @@
         <v>212817.0275335211</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4662,7 @@
         <v>212270.0001335211</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4695,7 @@
         <v>212414.2721335211</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4728,7 @@
         <v>205492.3440335211</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4761,7 @@
         <v>205014.7090335211</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4794,7 @@
         <v>207201.3232335211</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5005,7 +5025,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5401,7 +5421,7 @@
         <v>199245.1319335211</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5454,7 @@
         <v>193353.0881335211</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5520,7 @@
         <v>193367.0881335211</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5553,7 @@
         <v>190590.0881335211</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5632,7 +5652,7 @@
         <v>197421.6189335211</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -8338,17 +8358,11 @@
         <v>159725.0365808941</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>142.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8381,11 +8395,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8418,11 +8428,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8455,11 +8461,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8492,11 +8494,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8525,17 +8523,11 @@
         <v>166458.8723808941</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>141.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8568,11 +8560,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8605,11 +8593,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8642,11 +8626,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8679,11 +8659,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8716,11 +8692,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8753,11 +8725,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8790,11 +8758,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8827,11 +8791,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8864,11 +8824,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8901,11 +8857,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +8890,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8975,11 +8923,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9012,11 +8956,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9049,11 +8989,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9086,11 +9022,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9123,11 +9055,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9160,11 +9088,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9197,11 +9121,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9234,11 +9154,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9271,11 +9187,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9308,11 +9220,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9345,11 +9253,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9378,17 +9282,11 @@
         <v>141417.130780894</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9417,17 +9315,11 @@
         <v>142487.130780894</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>139.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9456,17 +9348,11 @@
         <v>110800.563280894</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9499,11 +9385,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9532,17 +9414,11 @@
         <v>116262.108980894</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9571,17 +9447,11 @@
         <v>114362.108980894</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>141.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +9484,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9651,11 +9517,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9684,17 +9546,11 @@
         <v>116779.730380894</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>138.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9723,17 +9579,11 @@
         <v>116572.312480894</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>139.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
